--- a/services/opengsync-app/static/resources/templates/library_prep/WGS_COV.xlsx
+++ b/services/opengsync-app/static/resources/templates/library_prep/WGS_COV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cemmat-my.sharepoint.com/personal/hriegler_cemm_at/Documents/Documents/GitHub/limbless-app/services/limbless-app/static/resources/templates/library_prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{101EA891-D4D5-0C47-804A-0CB24FBB0E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B81F74AB-16F0-4D27-A8F8-7FD0E1BF2BEF}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{101EA891-D4D5-0C47-804A-0CB24FBB0E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C26A238A-E03F-4A86-A634-B1C1B63B1155}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{B38823E2-9AAF-4849-A302-784C5AB9E0F5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{B38823E2-9AAF-4849-A302-784C5AB9E0F5}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_table" sheetId="27" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1423,71 +1423,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1496,15 +1460,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1540,22 +1495,67 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3384,13 +3384,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>84</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>85</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -3453,13 +3453,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>73</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>279400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>75</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3585,15 +3585,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3727,7 +3727,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3794,7 +3794,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>279400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3861,7 +3861,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3920,7 +3920,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -3989,7 +3989,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>314325</xdr:rowOff>
+          <xdr:rowOff>317500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -4054,13 +4054,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4123,13 +4123,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4190,13 +4190,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4324,7 +4324,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4391,7 +4391,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4586,7 +4586,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>89</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -4659,7 +4659,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4726,7 +4726,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4921,7 +4921,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>89</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -4988,7 +4988,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>102</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -5055,7 +5055,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>102</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -5122,7 +5122,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>103</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -5189,7 +5189,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>103</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -5262,7 +5262,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>106</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5460,13 +5460,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>85</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>86</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -5529,13 +5529,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>74</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>279400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>76</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5661,15 +5661,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5803,7 +5803,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5937,7 +5937,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5996,7 +5996,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -6065,7 +6065,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>314325</xdr:rowOff>
+          <xdr:rowOff>317500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -6130,13 +6130,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6199,13 +6199,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6266,13 +6266,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6400,7 +6400,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6467,7 +6467,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6662,7 +6662,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>90</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -6735,7 +6735,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6802,7 +6802,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6997,7 +6997,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>90</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -7064,7 +7064,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>103</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -7131,7 +7131,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>103</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -7198,7 +7198,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>104</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -7265,7 +7265,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>104</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -7338,7 +7338,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>107</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7397,15 +7397,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>314325</xdr:rowOff>
+          <xdr:rowOff>317500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7464,7 +7464,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
@@ -7881,29 +7881,29 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="T2" sqref="T2:T97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="12" width="12.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
-    <col min="18" max="21" width="7.85546875" customWidth="1"/>
-    <col min="22" max="29" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="8" width="12.453125" customWidth="1"/>
+    <col min="9" max="9" width="7.81640625" customWidth="1"/>
+    <col min="10" max="12" width="12.453125" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.453125" customWidth="1"/>
+    <col min="18" max="21" width="7.81640625" customWidth="1"/>
+    <col min="22" max="29" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7981,12 +7981,13 @@
         <f>IF(ABS(Q2 - $V$2) &lt;= 0.2 * $V$2,1, IF( Q2 &gt; $V$2, $V$2 * 1.2/Q2, $V$2 * 0.8/Q2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T2" s="35">
-        <v>1</v>
-      </c>
-      <c r="U2" s="35">
+      <c r="T2" s="35" t="e">
+        <f>S2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U2" s="35" t="e">
         <f t="shared" ref="U2:U33" si="0">Q2*T2</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V2" s="77" t="e" cm="1">
         <f t="array" ref="V2">AVERAGE(IF(Q2:Q97&lt;&gt;0, Q2:Q97))</f>
@@ -8001,7 +8002,7 @@
       <c r="AC2"/>
       <c r="AD2"/>
     </row>
-    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8011,12 +8012,13 @@
         <f t="shared" ref="S3:S66" si="1">IF(ABS(Q3 - $V$2) &lt;= 0.2 * $V$2,1, IF( Q3 &gt; $V$2, $V$2 * 1.2/Q3, $V$2 * 0.8/Q3))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T3" s="35">
-        <v>2</v>
-      </c>
-      <c r="U3" s="35">
+      <c r="T3" s="35" t="e">
+        <f t="shared" ref="T3:T66" si="2">S3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U3" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V3" s="77"/>
       <c r="W3"/>
@@ -8028,7 +8030,7 @@
       <c r="AC3"/>
       <c r="AD3"/>
     </row>
-    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8038,12 +8040,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T4" s="35">
-        <v>3</v>
-      </c>
-      <c r="U4" s="35">
+      <c r="T4" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U4" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V4" s="77"/>
       <c r="W4"/>
@@ -8055,7 +8058,7 @@
       <c r="AC4"/>
       <c r="AD4"/>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8065,12 +8068,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T5" s="35">
-        <v>4</v>
-      </c>
-      <c r="U5" s="35">
+      <c r="T5" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U5" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V5" s="77"/>
       <c r="W5"/>
@@ -8082,7 +8086,7 @@
       <c r="AC5"/>
       <c r="AD5"/>
     </row>
-    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8092,12 +8096,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T6" s="35">
-        <v>5</v>
-      </c>
-      <c r="U6" s="35">
+      <c r="T6" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U6" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V6" s="77"/>
       <c r="W6"/>
@@ -8109,7 +8114,7 @@
       <c r="AC6"/>
       <c r="AD6"/>
     </row>
-    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8119,12 +8124,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T7" s="35">
-        <v>6</v>
-      </c>
-      <c r="U7" s="35">
+      <c r="T7" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U7" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V7" s="77"/>
       <c r="W7"/>
@@ -8136,7 +8142,7 @@
       <c r="AC7"/>
       <c r="AD7"/>
     </row>
-    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8146,12 +8152,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T8" s="35">
-        <v>7</v>
-      </c>
-      <c r="U8" s="35">
+      <c r="T8" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U8" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V8" s="77"/>
       <c r="W8"/>
@@ -8163,7 +8170,7 @@
       <c r="AC8"/>
       <c r="AD8"/>
     </row>
-    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8173,12 +8180,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T9" s="35">
-        <v>8</v>
-      </c>
-      <c r="U9" s="35">
+      <c r="T9" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U9" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V9" s="77"/>
       <c r="W9"/>
@@ -8190,7 +8198,7 @@
       <c r="AC9"/>
       <c r="AD9"/>
     </row>
-    <row r="10" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8200,12 +8208,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T10" s="35">
-        <v>9</v>
-      </c>
-      <c r="U10" s="35">
+      <c r="T10" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U10" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V10" s="77"/>
       <c r="W10"/>
@@ -8217,7 +8226,7 @@
       <c r="AC10"/>
       <c r="AD10"/>
     </row>
-    <row r="11" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8227,12 +8236,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T11" s="35">
-        <v>10</v>
-      </c>
-      <c r="U11" s="35">
+      <c r="T11" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U11" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V11" s="77"/>
       <c r="W11"/>
@@ -8244,7 +8254,7 @@
       <c r="AC11"/>
       <c r="AD11"/>
     </row>
-    <row r="12" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8254,12 +8264,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T12" s="35">
-        <v>11</v>
-      </c>
-      <c r="U12" s="35">
+      <c r="T12" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V12" s="77"/>
       <c r="W12"/>
@@ -8271,7 +8282,7 @@
       <c r="AC12"/>
       <c r="AD12"/>
     </row>
-    <row r="13" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8281,12 +8292,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T13" s="35">
-        <v>12</v>
-      </c>
-      <c r="U13" s="35">
+      <c r="T13" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V13" s="77"/>
       <c r="W13"/>
@@ -8298,7 +8310,7 @@
       <c r="AC13"/>
       <c r="AD13"/>
     </row>
-    <row r="14" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8308,12 +8320,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T14" s="35">
-        <v>13</v>
-      </c>
-      <c r="U14" s="35">
+      <c r="T14" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V14" s="77"/>
       <c r="W14"/>
@@ -8325,7 +8338,7 @@
       <c r="AC14"/>
       <c r="AD14"/>
     </row>
-    <row r="15" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8335,12 +8348,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T15" s="35">
-        <v>14</v>
-      </c>
-      <c r="U15" s="35">
+      <c r="T15" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U15" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V15" s="77"/>
       <c r="W15"/>
@@ -8352,7 +8366,7 @@
       <c r="AC15"/>
       <c r="AD15"/>
     </row>
-    <row r="16" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -8362,12 +8376,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T16" s="35">
-        <v>15</v>
-      </c>
-      <c r="U16" s="35">
+      <c r="T16" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V16" s="77"/>
       <c r="W16"/>
@@ -8379,7 +8394,7 @@
       <c r="AC16"/>
       <c r="AD16"/>
     </row>
-    <row r="17" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -8389,12 +8404,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T17" s="35">
-        <v>16</v>
-      </c>
-      <c r="U17" s="35">
+      <c r="T17" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U17" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V17" s="77"/>
       <c r="W17"/>
@@ -8406,7 +8422,7 @@
       <c r="AC17"/>
       <c r="AD17"/>
     </row>
-    <row r="18" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -8416,12 +8432,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T18" s="35">
-        <v>17</v>
-      </c>
-      <c r="U18" s="35">
+      <c r="T18" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U18" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V18" s="77"/>
       <c r="W18"/>
@@ -8433,7 +8450,7 @@
       <c r="AC18"/>
       <c r="AD18"/>
     </row>
-    <row r="19" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -8443,12 +8460,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T19" s="35">
-        <v>18</v>
-      </c>
-      <c r="U19" s="35">
+      <c r="T19" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U19" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V19" s="77"/>
       <c r="W19"/>
@@ -8460,7 +8478,7 @@
       <c r="AC19"/>
       <c r="AD19"/>
     </row>
-    <row r="20" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -8470,12 +8488,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T20" s="35">
-        <v>19</v>
-      </c>
-      <c r="U20" s="35">
+      <c r="T20" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U20" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V20" s="77"/>
       <c r="W20"/>
@@ -8487,7 +8506,7 @@
       <c r="AC20"/>
       <c r="AD20"/>
     </row>
-    <row r="21" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -8497,12 +8516,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T21" s="35">
-        <v>20</v>
-      </c>
-      <c r="U21" s="35">
+      <c r="T21" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U21" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V21" s="77"/>
       <c r="W21"/>
@@ -8514,7 +8534,7 @@
       <c r="AC21"/>
       <c r="AD21"/>
     </row>
-    <row r="22" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -8524,12 +8544,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T22" s="35">
-        <v>21</v>
-      </c>
-      <c r="U22" s="35">
+      <c r="T22" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U22" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V22" s="77"/>
       <c r="W22"/>
@@ -8541,7 +8562,7 @@
       <c r="AC22"/>
       <c r="AD22"/>
     </row>
-    <row r="23" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8551,12 +8572,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T23" s="35">
-        <v>22</v>
-      </c>
-      <c r="U23" s="35">
+      <c r="T23" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U23" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V23" s="77"/>
       <c r="W23"/>
@@ -8568,7 +8590,7 @@
       <c r="AC23"/>
       <c r="AD23"/>
     </row>
-    <row r="24" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -8578,12 +8600,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T24" s="35">
-        <v>23</v>
-      </c>
-      <c r="U24" s="35">
+      <c r="T24" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U24" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V24" s="77"/>
       <c r="W24"/>
@@ -8595,7 +8618,7 @@
       <c r="AC24"/>
       <c r="AD24"/>
     </row>
-    <row r="25" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8605,12 +8628,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T25" s="35">
-        <v>24</v>
-      </c>
-      <c r="U25" s="35">
+      <c r="T25" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V25" s="77"/>
       <c r="W25"/>
@@ -8622,7 +8646,7 @@
       <c r="AC25"/>
       <c r="AD25"/>
     </row>
-    <row r="26" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8632,12 +8656,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T26" s="35">
-        <v>25</v>
-      </c>
-      <c r="U26" s="35">
+      <c r="T26" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U26" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V26" s="77"/>
       <c r="W26"/>
@@ -8649,7 +8674,7 @@
       <c r="AC26"/>
       <c r="AD26"/>
     </row>
-    <row r="27" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -8659,12 +8684,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T27" s="35">
-        <v>26</v>
-      </c>
-      <c r="U27" s="35">
+      <c r="T27" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U27" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V27" s="77"/>
       <c r="W27"/>
@@ -8676,7 +8702,7 @@
       <c r="AC27"/>
       <c r="AD27"/>
     </row>
-    <row r="28" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -8686,12 +8712,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T28" s="35">
-        <v>27</v>
-      </c>
-      <c r="U28" s="35">
+      <c r="T28" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U28" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V28" s="77"/>
       <c r="W28"/>
@@ -8703,7 +8730,7 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -8713,12 +8740,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T29" s="35">
-        <v>28</v>
-      </c>
-      <c r="U29" s="35">
+      <c r="T29" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V29" s="77"/>
       <c r="W29"/>
@@ -8730,7 +8758,7 @@
       <c r="AC29"/>
       <c r="AD29"/>
     </row>
-    <row r="30" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -8740,12 +8768,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T30" s="35">
-        <v>29</v>
-      </c>
-      <c r="U30" s="35">
+      <c r="T30" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U30" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V30" s="77"/>
       <c r="W30"/>
@@ -8757,7 +8786,7 @@
       <c r="AC30"/>
       <c r="AD30"/>
     </row>
-    <row r="31" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -8767,12 +8796,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T31" s="35">
-        <v>30</v>
-      </c>
-      <c r="U31" s="35">
+      <c r="T31" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U31" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V31" s="77"/>
       <c r="W31"/>
@@ -8784,7 +8814,7 @@
       <c r="AC31"/>
       <c r="AD31"/>
     </row>
-    <row r="32" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -8794,12 +8824,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T32" s="35">
-        <v>31</v>
-      </c>
-      <c r="U32" s="35">
+      <c r="T32" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U32" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V32" s="77"/>
       <c r="W32"/>
@@ -8811,7 +8842,7 @@
       <c r="AC32"/>
       <c r="AD32"/>
     </row>
-    <row r="33" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -8821,12 +8852,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T33" s="35">
-        <v>32</v>
-      </c>
-      <c r="U33" s="35">
+      <c r="T33" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U33" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V33" s="77"/>
       <c r="W33"/>
@@ -8838,7 +8870,7 @@
       <c r="AC33"/>
       <c r="AD33"/>
     </row>
-    <row r="34" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -8848,12 +8880,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T34" s="35">
-        <v>33</v>
-      </c>
-      <c r="U34" s="35">
-        <f t="shared" ref="U34:U65" si="2">Q34*T34</f>
-        <v>0</v>
+      <c r="T34" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U34" s="35" t="e">
+        <f t="shared" ref="U34:U65" si="3">Q34*T34</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="V34" s="77"/>
       <c r="W34"/>
@@ -8865,7 +8898,7 @@
       <c r="AC34"/>
       <c r="AD34"/>
     </row>
-    <row r="35" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -8875,12 +8908,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T35" s="35">
-        <v>34</v>
-      </c>
-      <c r="U35" s="35">
+      <c r="T35" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U35" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V35" s="77"/>
       <c r="W35"/>
@@ -8892,7 +8926,7 @@
       <c r="AC35"/>
       <c r="AD35"/>
     </row>
-    <row r="36" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -8902,12 +8936,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T36" s="35">
-        <v>35</v>
-      </c>
-      <c r="U36" s="35">
+      <c r="T36" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U36" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V36" s="77"/>
       <c r="W36"/>
@@ -8919,7 +8954,7 @@
       <c r="AC36"/>
       <c r="AD36"/>
     </row>
-    <row r="37" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -8929,12 +8964,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T37" s="35">
-        <v>36</v>
-      </c>
-      <c r="U37" s="35">
+      <c r="T37" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U37" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V37" s="77"/>
       <c r="W37"/>
@@ -8946,7 +8982,7 @@
       <c r="AC37"/>
       <c r="AD37"/>
     </row>
-    <row r="38" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -8956,12 +8992,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T38" s="35">
-        <v>37</v>
-      </c>
-      <c r="U38" s="35">
+      <c r="T38" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U38" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V38" s="77"/>
       <c r="W38"/>
@@ -8973,7 +9010,7 @@
       <c r="AC38"/>
       <c r="AD38"/>
     </row>
-    <row r="39" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -8983,12 +9020,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T39" s="35">
-        <v>38</v>
-      </c>
-      <c r="U39" s="35">
+      <c r="T39" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U39" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V39" s="77"/>
       <c r="W39"/>
@@ -9000,7 +9038,7 @@
       <c r="AC39"/>
       <c r="AD39"/>
     </row>
-    <row r="40" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -9010,12 +9048,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T40" s="35">
-        <v>39</v>
-      </c>
-      <c r="U40" s="35">
+      <c r="T40" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U40" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V40" s="77"/>
       <c r="W40"/>
@@ -9027,7 +9066,7 @@
       <c r="AC40"/>
       <c r="AD40"/>
     </row>
-    <row r="41" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -9037,12 +9076,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T41" s="35">
-        <v>40</v>
-      </c>
-      <c r="U41" s="35">
+      <c r="T41" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U41" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V41" s="77"/>
       <c r="W41"/>
@@ -9054,7 +9094,7 @@
       <c r="AC41"/>
       <c r="AD41"/>
     </row>
-    <row r="42" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -9064,12 +9104,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T42" s="35">
-        <v>41</v>
-      </c>
-      <c r="U42" s="35">
+      <c r="T42" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U42" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V42" s="77"/>
       <c r="W42"/>
@@ -9081,7 +9122,7 @@
       <c r="AC42"/>
       <c r="AD42"/>
     </row>
-    <row r="43" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -9091,12 +9132,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T43" s="35">
-        <v>42</v>
-      </c>
-      <c r="U43" s="35">
+      <c r="T43" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U43" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V43" s="77"/>
       <c r="W43"/>
@@ -9108,7 +9150,7 @@
       <c r="AC43"/>
       <c r="AD43"/>
     </row>
-    <row r="44" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -9118,12 +9160,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T44" s="35">
-        <v>43</v>
-      </c>
-      <c r="U44" s="35">
+      <c r="T44" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U44" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V44" s="77"/>
       <c r="W44"/>
@@ -9135,7 +9178,7 @@
       <c r="AC44"/>
       <c r="AD44"/>
     </row>
-    <row r="45" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -9145,12 +9188,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T45" s="35">
-        <v>44</v>
-      </c>
-      <c r="U45" s="35">
+      <c r="T45" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U45" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V45" s="77"/>
       <c r="W45"/>
@@ -9162,7 +9206,7 @@
       <c r="AC45"/>
       <c r="AD45"/>
     </row>
-    <row r="46" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -9172,12 +9216,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T46" s="35">
-        <v>45</v>
-      </c>
-      <c r="U46" s="35">
+      <c r="T46" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U46" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V46" s="77"/>
       <c r="W46"/>
@@ -9189,7 +9234,7 @@
       <c r="AC46"/>
       <c r="AD46"/>
     </row>
-    <row r="47" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -9199,12 +9244,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T47" s="35">
-        <v>46</v>
-      </c>
-      <c r="U47" s="35">
+      <c r="T47" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U47" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V47" s="77"/>
       <c r="W47"/>
@@ -9216,7 +9262,7 @@
       <c r="AC47"/>
       <c r="AD47"/>
     </row>
-    <row r="48" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -9226,12 +9272,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T48" s="35">
-        <v>47</v>
-      </c>
-      <c r="U48" s="35">
+      <c r="T48" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U48" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V48" s="77"/>
       <c r="W48"/>
@@ -9243,7 +9290,7 @@
       <c r="AC48"/>
       <c r="AD48"/>
     </row>
-    <row r="49" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -9253,12 +9300,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T49" s="35">
-        <v>48</v>
-      </c>
-      <c r="U49" s="35">
+      <c r="T49" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U49" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V49" s="77"/>
       <c r="W49"/>
@@ -9270,7 +9318,7 @@
       <c r="AC49"/>
       <c r="AD49"/>
     </row>
-    <row r="50" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -9280,12 +9328,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T50" s="35">
-        <v>49</v>
-      </c>
-      <c r="U50" s="35">
+      <c r="T50" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U50" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V50" s="77"/>
       <c r="W50"/>
@@ -9297,7 +9346,7 @@
       <c r="AC50"/>
       <c r="AD50"/>
     </row>
-    <row r="51" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -9307,12 +9356,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T51" s="35">
-        <v>50</v>
-      </c>
-      <c r="U51" s="35">
+      <c r="T51" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U51" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V51" s="77"/>
       <c r="W51"/>
@@ -9324,7 +9374,7 @@
       <c r="AC51"/>
       <c r="AD51"/>
     </row>
-    <row r="52" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -9334,12 +9384,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T52" s="35">
-        <v>51</v>
-      </c>
-      <c r="U52" s="35">
+      <c r="T52" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U52" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V52" s="77"/>
       <c r="W52"/>
@@ -9351,7 +9402,7 @@
       <c r="AC52"/>
       <c r="AD52"/>
     </row>
-    <row r="53" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -9361,12 +9412,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T53" s="35">
-        <v>52</v>
-      </c>
-      <c r="U53" s="35">
+      <c r="T53" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U53" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V53" s="77"/>
       <c r="W53"/>
@@ -9378,7 +9430,7 @@
       <c r="AC53"/>
       <c r="AD53"/>
     </row>
-    <row r="54" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -9388,12 +9440,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T54" s="35">
-        <v>53</v>
-      </c>
-      <c r="U54" s="35">
+      <c r="T54" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U54" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V54" s="77"/>
       <c r="W54"/>
@@ -9405,7 +9458,7 @@
       <c r="AC54"/>
       <c r="AD54"/>
     </row>
-    <row r="55" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -9415,12 +9468,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T55" s="35">
-        <v>54</v>
-      </c>
-      <c r="U55" s="35">
+      <c r="T55" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U55" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V55" s="77"/>
       <c r="W55"/>
@@ -9432,7 +9486,7 @@
       <c r="AC55"/>
       <c r="AD55"/>
     </row>
-    <row r="56" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -9442,12 +9496,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T56" s="35">
-        <v>55</v>
-      </c>
-      <c r="U56" s="35">
+      <c r="T56" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U56" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V56" s="77"/>
       <c r="W56"/>
@@ -9459,7 +9514,7 @@
       <c r="AC56"/>
       <c r="AD56"/>
     </row>
-    <row r="57" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -9469,12 +9524,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T57" s="35">
-        <v>56</v>
-      </c>
-      <c r="U57" s="35">
+      <c r="T57" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U57" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V57" s="77"/>
       <c r="W57"/>
@@ -9486,7 +9542,7 @@
       <c r="AC57"/>
       <c r="AD57"/>
     </row>
-    <row r="58" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -9496,12 +9552,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T58" s="35">
-        <v>57</v>
-      </c>
-      <c r="U58" s="35">
+      <c r="T58" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U58" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V58" s="77"/>
       <c r="W58"/>
@@ -9513,7 +9570,7 @@
       <c r="AC58"/>
       <c r="AD58"/>
     </row>
-    <row r="59" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -9523,12 +9580,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T59" s="35">
-        <v>58</v>
-      </c>
-      <c r="U59" s="35">
+      <c r="T59" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U59" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V59" s="77"/>
       <c r="W59"/>
@@ -9540,7 +9598,7 @@
       <c r="AC59"/>
       <c r="AD59"/>
     </row>
-    <row r="60" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -9550,12 +9608,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T60" s="35">
-        <v>59</v>
-      </c>
-      <c r="U60" s="35">
+      <c r="T60" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U60" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V60" s="77"/>
       <c r="W60"/>
@@ -9567,7 +9626,7 @@
       <c r="AC60"/>
       <c r="AD60"/>
     </row>
-    <row r="61" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -9577,12 +9636,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T61" s="35">
-        <v>60</v>
-      </c>
-      <c r="U61" s="35">
+      <c r="T61" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U61" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V61" s="77"/>
       <c r="W61"/>
@@ -9594,7 +9654,7 @@
       <c r="AC61"/>
       <c r="AD61"/>
     </row>
-    <row r="62" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -9604,12 +9664,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T62" s="35">
-        <v>61</v>
-      </c>
-      <c r="U62" s="35">
+      <c r="T62" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U62" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V62" s="77"/>
       <c r="W62"/>
@@ -9621,7 +9682,7 @@
       <c r="AC62"/>
       <c r="AD62"/>
     </row>
-    <row r="63" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -9631,12 +9692,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T63" s="35">
-        <v>62</v>
-      </c>
-      <c r="U63" s="35">
+      <c r="T63" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U63" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V63" s="77"/>
       <c r="W63"/>
@@ -9648,7 +9710,7 @@
       <c r="AC63"/>
       <c r="AD63"/>
     </row>
-    <row r="64" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -9658,12 +9720,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T64" s="35">
-        <v>63</v>
-      </c>
-      <c r="U64" s="35">
+      <c r="T64" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U64" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V64" s="77"/>
       <c r="W64"/>
@@ -9675,7 +9738,7 @@
       <c r="AC64"/>
       <c r="AD64"/>
     </row>
-    <row r="65" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -9685,12 +9748,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T65" s="35">
-        <v>64</v>
-      </c>
-      <c r="U65" s="35">
+      <c r="T65" s="35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U65" s="35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V65" s="77"/>
       <c r="W65"/>
@@ -9702,7 +9766,7 @@
       <c r="AC65"/>
       <c r="AD65"/>
     </row>
-    <row r="66" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -9712,12 +9776,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T66" s="35">
-        <v>65</v>
-      </c>
-      <c r="U66" s="35">
-        <f t="shared" ref="U66:U97" si="3">Q66*T66</f>
-        <v>0</v>
+      <c r="T66" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U66" s="35" t="e">
+        <f t="shared" ref="U66:U97" si="4">Q66*T66</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="V66" s="77"/>
       <c r="W66"/>
@@ -9729,22 +9794,23 @@
       <c r="AC66"/>
       <c r="AD66"/>
     </row>
-    <row r="67" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="Q67" s="35"/>
       <c r="R67" s="35"/>
       <c r="S67" s="35" t="e">
-        <f t="shared" ref="S67:S97" si="4">IF(ABS(Q67 - $V$2) &lt;= 0.2 * $V$2,1, IF( Q67 &gt; $V$2, $V$2 * 1.2/Q67, $V$2 * 0.8/Q67))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T67" s="35">
-        <v>66</v>
-      </c>
-      <c r="U67" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="S67:S97" si="5">IF(ABS(Q67 - $V$2) &lt;= 0.2 * $V$2,1, IF( Q67 &gt; $V$2, $V$2 * 1.2/Q67, $V$2 * 0.8/Q67))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T67" s="35" t="e">
+        <f t="shared" ref="T67:T97" si="6">S67</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U67" s="35" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V67" s="77"/>
       <c r="W67"/>
@@ -9756,22 +9822,23 @@
       <c r="AC67"/>
       <c r="AD67"/>
     </row>
-    <row r="68" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="Q68" s="35"/>
       <c r="R68" s="35"/>
       <c r="S68" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T68" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U68" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T68" s="35">
-        <v>67</v>
-      </c>
-      <c r="U68" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V68" s="77"/>
       <c r="W68"/>
@@ -9783,22 +9850,23 @@
       <c r="AC68"/>
       <c r="AD68"/>
     </row>
-    <row r="69" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="Q69" s="35"/>
       <c r="R69" s="35"/>
       <c r="S69" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T69" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U69" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T69" s="35">
-        <v>68</v>
-      </c>
-      <c r="U69" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V69" s="77"/>
       <c r="W69"/>
@@ -9810,22 +9878,23 @@
       <c r="AC69"/>
       <c r="AD69"/>
     </row>
-    <row r="70" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="Q70" s="35"/>
       <c r="R70" s="35"/>
       <c r="S70" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T70" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U70" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T70" s="35">
-        <v>69</v>
-      </c>
-      <c r="U70" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V70" s="77"/>
       <c r="W70"/>
@@ -9837,22 +9906,23 @@
       <c r="AC70"/>
       <c r="AD70"/>
     </row>
-    <row r="71" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="Q71" s="35"/>
       <c r="R71" s="35"/>
       <c r="S71" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T71" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U71" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T71" s="35">
-        <v>70</v>
-      </c>
-      <c r="U71" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V71" s="77"/>
       <c r="W71"/>
@@ -9864,22 +9934,23 @@
       <c r="AC71"/>
       <c r="AD71"/>
     </row>
-    <row r="72" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="Q72" s="35"/>
       <c r="R72" s="35"/>
       <c r="S72" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T72" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U72" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T72" s="35">
-        <v>71</v>
-      </c>
-      <c r="U72" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V72" s="77"/>
       <c r="W72"/>
@@ -9891,22 +9962,23 @@
       <c r="AC72"/>
       <c r="AD72"/>
     </row>
-    <row r="73" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="Q73" s="35"/>
       <c r="R73" s="35"/>
       <c r="S73" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T73" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U73" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T73" s="35">
-        <v>72</v>
-      </c>
-      <c r="U73" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V73" s="77"/>
       <c r="W73"/>
@@ -9918,22 +9990,23 @@
       <c r="AC73"/>
       <c r="AD73"/>
     </row>
-    <row r="74" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="Q74" s="35"/>
       <c r="R74" s="35"/>
       <c r="S74" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T74" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U74" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T74" s="35">
-        <v>73</v>
-      </c>
-      <c r="U74" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V74" s="77"/>
       <c r="W74"/>
@@ -9945,22 +10018,23 @@
       <c r="AC74"/>
       <c r="AD74"/>
     </row>
-    <row r="75" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="Q75" s="35"/>
       <c r="R75" s="35"/>
       <c r="S75" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T75" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U75" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T75" s="35">
-        <v>74</v>
-      </c>
-      <c r="U75" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V75" s="77"/>
       <c r="W75"/>
@@ -9972,22 +10046,23 @@
       <c r="AC75"/>
       <c r="AD75"/>
     </row>
-    <row r="76" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="Q76" s="35"/>
       <c r="R76" s="35"/>
       <c r="S76" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T76" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U76" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T76" s="35">
-        <v>75</v>
-      </c>
-      <c r="U76" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V76" s="77"/>
       <c r="W76"/>
@@ -9999,22 +10074,23 @@
       <c r="AC76"/>
       <c r="AD76"/>
     </row>
-    <row r="77" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="Q77" s="35"/>
       <c r="R77" s="35"/>
       <c r="S77" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T77" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U77" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T77" s="35">
-        <v>76</v>
-      </c>
-      <c r="U77" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V77" s="77"/>
       <c r="W77"/>
@@ -10026,22 +10102,23 @@
       <c r="AC77"/>
       <c r="AD77"/>
     </row>
-    <row r="78" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="Q78" s="35"/>
       <c r="R78" s="35"/>
       <c r="S78" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T78" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U78" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T78" s="35">
-        <v>77</v>
-      </c>
-      <c r="U78" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V78" s="77"/>
       <c r="W78"/>
@@ -10053,22 +10130,23 @@
       <c r="AC78"/>
       <c r="AD78"/>
     </row>
-    <row r="79" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="Q79" s="35"/>
       <c r="R79" s="35"/>
       <c r="S79" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T79" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U79" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T79" s="35">
-        <v>78</v>
-      </c>
-      <c r="U79" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V79" s="77"/>
       <c r="W79"/>
@@ -10080,22 +10158,23 @@
       <c r="AC79"/>
       <c r="AD79"/>
     </row>
-    <row r="80" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="Q80" s="35"/>
       <c r="R80" s="35"/>
       <c r="S80" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T80" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U80" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T80" s="35">
-        <v>79</v>
-      </c>
-      <c r="U80" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V80" s="77"/>
       <c r="W80"/>
@@ -10107,22 +10186,23 @@
       <c r="AC80"/>
       <c r="AD80"/>
     </row>
-    <row r="81" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="Q81" s="35"/>
       <c r="R81" s="35"/>
       <c r="S81" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T81" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U81" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T81" s="35">
-        <v>80</v>
-      </c>
-      <c r="U81" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V81" s="77"/>
       <c r="W81"/>
@@ -10134,22 +10214,23 @@
       <c r="AC81"/>
       <c r="AD81"/>
     </row>
-    <row r="82" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="Q82" s="35"/>
       <c r="R82" s="35"/>
       <c r="S82" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T82" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U82" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T82" s="35">
-        <v>81</v>
-      </c>
-      <c r="U82" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V82" s="77"/>
       <c r="W82"/>
@@ -10161,22 +10242,23 @@
       <c r="AC82"/>
       <c r="AD82"/>
     </row>
-    <row r="83" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="Q83" s="35"/>
       <c r="R83" s="35"/>
       <c r="S83" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T83" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U83" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T83" s="35">
-        <v>82</v>
-      </c>
-      <c r="U83" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V83" s="77"/>
       <c r="W83"/>
@@ -10188,22 +10270,23 @@
       <c r="AC83"/>
       <c r="AD83"/>
     </row>
-    <row r="84" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="Q84" s="35"/>
       <c r="R84" s="35"/>
       <c r="S84" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T84" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U84" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T84" s="35">
-        <v>83</v>
-      </c>
-      <c r="U84" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V84" s="77"/>
       <c r="W84"/>
@@ -10215,22 +10298,23 @@
       <c r="AC84"/>
       <c r="AD84"/>
     </row>
-    <row r="85" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="Q85" s="35"/>
       <c r="R85" s="35"/>
       <c r="S85" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T85" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U85" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T85" s="35">
-        <v>84</v>
-      </c>
-      <c r="U85" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V85" s="77"/>
       <c r="W85"/>
@@ -10242,22 +10326,23 @@
       <c r="AC85"/>
       <c r="AD85"/>
     </row>
-    <row r="86" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="Q86" s="35"/>
       <c r="R86" s="35"/>
       <c r="S86" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T86" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U86" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T86" s="35">
-        <v>85</v>
-      </c>
-      <c r="U86" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V86" s="77"/>
       <c r="W86"/>
@@ -10269,22 +10354,23 @@
       <c r="AC86"/>
       <c r="AD86"/>
     </row>
-    <row r="87" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="Q87" s="35"/>
       <c r="R87" s="35"/>
       <c r="S87" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T87" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U87" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T87" s="35">
-        <v>86</v>
-      </c>
-      <c r="U87" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V87" s="77"/>
       <c r="W87"/>
@@ -10296,22 +10382,23 @@
       <c r="AC87"/>
       <c r="AD87"/>
     </row>
-    <row r="88" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="Q88" s="35"/>
       <c r="R88" s="35"/>
       <c r="S88" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T88" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U88" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T88" s="35">
-        <v>87</v>
-      </c>
-      <c r="U88" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V88" s="77"/>
       <c r="W88"/>
@@ -10323,22 +10410,23 @@
       <c r="AC88"/>
       <c r="AD88"/>
     </row>
-    <row r="89" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="Q89" s="35"/>
       <c r="R89" s="35"/>
       <c r="S89" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T89" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U89" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T89" s="35">
-        <v>88</v>
-      </c>
-      <c r="U89" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V89" s="77"/>
       <c r="W89"/>
@@ -10350,22 +10438,23 @@
       <c r="AC89"/>
       <c r="AD89"/>
     </row>
-    <row r="90" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="Q90" s="35"/>
       <c r="R90" s="35"/>
       <c r="S90" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T90" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U90" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T90" s="35">
-        <v>89</v>
-      </c>
-      <c r="U90" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V90" s="77"/>
       <c r="W90"/>
@@ -10377,22 +10466,23 @@
       <c r="AC90"/>
       <c r="AD90"/>
     </row>
-    <row r="91" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="Q91" s="35"/>
       <c r="R91" s="35"/>
       <c r="S91" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T91" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U91" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T91" s="35">
-        <v>90</v>
-      </c>
-      <c r="U91" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V91" s="77"/>
       <c r="W91"/>
@@ -10404,22 +10494,23 @@
       <c r="AC91"/>
       <c r="AD91"/>
     </row>
-    <row r="92" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="Q92" s="35"/>
       <c r="R92" s="35"/>
       <c r="S92" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T92" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U92" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T92" s="35">
-        <v>91</v>
-      </c>
-      <c r="U92" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V92" s="77"/>
       <c r="W92"/>
@@ -10431,22 +10522,23 @@
       <c r="AC92"/>
       <c r="AD92"/>
     </row>
-    <row r="93" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="Q93" s="35"/>
       <c r="R93" s="35"/>
       <c r="S93" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T93" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U93" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T93" s="35">
-        <v>92</v>
-      </c>
-      <c r="U93" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V93" s="77"/>
       <c r="W93"/>
@@ -10458,22 +10550,23 @@
       <c r="AC93"/>
       <c r="AD93"/>
     </row>
-    <row r="94" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="Q94" s="35"/>
       <c r="R94" s="35"/>
       <c r="S94" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T94" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U94" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T94" s="35">
-        <v>93</v>
-      </c>
-      <c r="U94" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V94" s="77"/>
       <c r="W94"/>
@@ -10485,22 +10578,23 @@
       <c r="AC94"/>
       <c r="AD94"/>
     </row>
-    <row r="95" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="Q95" s="35"/>
       <c r="R95" s="35"/>
       <c r="S95" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T95" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U95" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T95" s="35">
-        <v>94</v>
-      </c>
-      <c r="U95" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V95" s="77"/>
       <c r="W95"/>
@@ -10512,22 +10606,23 @@
       <c r="AC95"/>
       <c r="AD95"/>
     </row>
-    <row r="96" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="Q96" s="35"/>
       <c r="R96" s="35"/>
       <c r="S96" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T96" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U96" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T96" s="35">
-        <v>95</v>
-      </c>
-      <c r="U96" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V96" s="77"/>
       <c r="W96"/>
@@ -10539,22 +10634,23 @@
       <c r="AC96"/>
       <c r="AD96"/>
     </row>
-    <row r="97" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="Q97" s="35"/>
       <c r="R97" s="35"/>
       <c r="S97" s="35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T97" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U97" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T97" s="35">
-        <v>96</v>
-      </c>
-      <c r="U97" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="V97" s="77"/>
       <c r="W97"/>
@@ -10576,217 +10672,217 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A957C799-4773-44A4-8118-3FED6C4511D6}">
   <dimension ref="A1:AK124"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="76" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="N120" sqref="N120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" style="4" customWidth="1"/>
     <col min="3" max="3" width="15" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
-    <col min="8" max="11" width="7.42578125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="4" customWidth="1"/>
+    <col min="8" max="11" width="7.453125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" style="4" customWidth="1"/>
     <col min="13" max="13" width="8" style="4" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="4"/>
-    <col min="16" max="16" width="8.140625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="5.85546875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="4" customWidth="1"/>
-    <col min="22" max="22" width="5.42578125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="6.140625" style="4" customWidth="1"/>
-    <col min="24" max="25" width="5.85546875" style="4" customWidth="1"/>
-    <col min="26" max="27" width="6.42578125" style="4" customWidth="1"/>
-    <col min="28" max="28" width="6.140625" style="4" customWidth="1"/>
-    <col min="29" max="29" width="5.85546875" style="4" customWidth="1"/>
-    <col min="30" max="31" width="8.85546875" style="4"/>
-    <col min="32" max="32" width="9.42578125" style="4" customWidth="1"/>
-    <col min="33" max="16384" width="8.85546875" style="4"/>
+    <col min="14" max="14" width="8.453125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.81640625" style="4"/>
+    <col min="16" max="16" width="8.1796875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="5.453125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="5.81640625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="5.453125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="5.81640625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="5.453125" style="4" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" style="4" customWidth="1"/>
+    <col min="24" max="25" width="5.81640625" style="4" customWidth="1"/>
+    <col min="26" max="27" width="6.453125" style="4" customWidth="1"/>
+    <col min="28" max="28" width="6.1796875" style="4" customWidth="1"/>
+    <col min="29" max="29" width="5.81640625" style="4" customWidth="1"/>
+    <col min="30" max="31" width="8.81640625" style="4"/>
+    <col min="32" max="32" width="9.453125" style="4" customWidth="1"/>
+    <col min="33" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="5"/>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+    <row r="2" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
-    </row>
-    <row r="3" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
+    </row>
+    <row r="3" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="107"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83"/>
       <c r="L3" s="6" t="s">
         <v>66</v>
       </c>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:37" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+    <row r="4" spans="1:37" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="119" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="120"/>
+      <c r="L4" s="86"/>
       <c r="M4" s="7"/>
       <c r="AK4" s="8"/>
     </row>
-    <row r="5" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
+    <row r="5" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="107"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="83"/>
       <c r="AK5" s="8"/>
     </row>
-    <row r="6" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+    <row r="6" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="46"/>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
       <c r="J6" s="48"/>
       <c r="AK6" s="8"/>
     </row>
-    <row r="7" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="121" t="s">
+    <row r="7" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="123"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="89"/>
       <c r="G7" s="46"/>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
       <c r="J7" s="48"/>
       <c r="AK7" s="8"/>
     </row>
-    <row r="8" spans="1:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+    <row r="8" spans="1:37" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="107"/>
-    </row>
-    <row r="9" spans="1:37" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83"/>
+    </row>
+    <row r="9" spans="1:37" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="107"/>
-    </row>
-    <row r="10" spans="1:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="83"/>
+    </row>
+    <row r="10" spans="1:37" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="107"/>
-    </row>
-    <row r="11" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="83"/>
+    </row>
+    <row r="11" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="107"/>
-    </row>
-    <row r="12" spans="1:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="83"/>
+    </row>
+    <row r="12" spans="1:37" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
       <c r="G12" s="70"/>
       <c r="H12" s="9" t="b">
         <f>MOD(G12,8)=0</f>
@@ -10802,15 +10898,15 @@
       </c>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:37" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84" t="s">
+    <row r="13" spans="1:37" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
       <c r="G13" s="71">
         <v>15</v>
       </c>
@@ -10828,25 +10924,25 @@
       </c>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="111"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="96"/>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="3" t="str">
         <f>IF(ISNUMBER($G$13),IF($H$13=TRUE,CONCATENATE("Pipet ",FIXED($G$13*D17/12*1.1)," µL of LunaScript RT SuperMix into each well of row A of MM plate"),CONCATENATE("Pipet ",FIXED(($I$13+1)*D17*1.1)," µL of LunaScript RT SuperMix into first ",$J$13," wells and ",FIXED(($I$13)*D17*1.1)," µL into the other wells of MM plate row A")), IF($H$12=TRUE,CONCATENATE("Pipet ",FIXED($G$12*D17/8*1.1)," µL of FS1 into each well of column 1 of MM plate"),CONCATENATE("Pipet ",FIXED(($I$12+1)*D17*1.1)," µL of FS1 into first ",$J$12," wells and ",FIXED(($I$12)*D17*1.1)," µL into the other wells of MM plate column 1")))</f>
@@ -10857,7 +10953,7 @@
       <c r="E15" s="3"/>
       <c r="O15" s="17"/>
     </row>
-    <row r="16" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
         <v>15</v>
@@ -10874,7 +10970,7 @@
       <c r="O16" s="17"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11"/>
       <c r="B17" s="3"/>
       <c r="C17" s="45" t="s">
@@ -10888,7 +10984,7 @@
       </c>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" spans="1:15" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
       <c r="B18" s="3"/>
       <c r="C18" s="23"/>
@@ -10903,7 +10999,7 @@
       </c>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
         <v>16</v>
@@ -10917,7 +11013,7 @@
       <c r="F19" s="26"/>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="3"/>
       <c r="D20" s="25" t="s">
@@ -10927,7 +11023,7 @@
       <c r="F20" s="26"/>
       <c r="O20" s="17"/>
     </row>
-    <row r="21" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="3"/>
       <c r="D21" s="25" t="s">
@@ -10937,7 +11033,7 @@
       <c r="F21" s="26"/>
       <c r="O21" s="17"/>
     </row>
-    <row r="22" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11"/>
       <c r="B22" s="3"/>
       <c r="D22" s="25" t="s">
@@ -10946,7 +11042,7 @@
       <c r="F22" s="3"/>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
         <v>79</v>
@@ -10954,24 +11050,24 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24"/>
-      <c r="B24" s="112" t="s">
+      <c r="B24" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="114"/>
-    </row>
-    <row r="25" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="99"/>
+    </row>
+    <row r="25" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
       <c r="B25" s="3" t="str">
         <f>IF($H$13=TRUE,CONCATENATE("Prepare Mastermix (P1) according to the following table and pipet ",FIXED(G13*D30/12*1.1)," µL into each well of row B of MM plate"),CONCATENATE("Prepare Mastermix (P1) according to the following table and pipet ",FIXED((I13+1)*D30*1.1)," µL into first ",$J$13," wells and ",FIXED((I13)*D30*1.1)," µL into the other wells of MM plate row B"))</f>
@@ -10980,7 +11076,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -10992,7 +11088,7 @@
         <v xml:space="preserve"> Volume for 15 samples</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" s="3"/>
       <c r="C27" s="45" t="s">
@@ -11006,7 +11102,7 @@
       </c>
       <c r="F27" s="22"/>
     </row>
-    <row r="28" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
       <c r="C28" s="53" t="s">
         <v>81</v>
@@ -11022,7 +11118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="C29" s="43" t="s">
         <v>82</v>
@@ -11038,7 +11134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="C30" s="23"/>
       <c r="D30" s="24">
@@ -11055,7 +11151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
       <c r="B31" s="3" t="str">
         <f>IF($H$13=TRUE,CONCATENATE("Prepare Mastermix (P2) according to the following table and pipet ",FIXED($G$13*D36/12*1.1)," µL into each well of row C of MM plate"),CONCATENATE("Prepare Mastermix (P2) according to the following table and pipet ",FIXED((I13+1)*D36*1.1)," µL into first ",$J$13," wells and ",FIXED((I13)*D36*1.1)," µL into the other wells of MM plate row C"))</f>
@@ -11064,7 +11160,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -11076,7 +11172,7 @@
         <v xml:space="preserve"> Volume for 15 samples</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="11"/>
       <c r="B33" s="3"/>
       <c r="C33" s="45" t="s">
@@ -11090,7 +11186,7 @@
       </c>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
       <c r="C34" s="53" t="s">
         <v>81</v>
@@ -11106,7 +11202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="11"/>
       <c r="C35" s="43" t="s">
         <v>83</v>
@@ -11122,7 +11218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="11"/>
       <c r="C36" s="23"/>
       <c r="D36" s="24">
@@ -11139,7 +11235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="10"/>
       <c r="B37" s="28" t="s">
         <v>16</v>
@@ -11151,25 +11247,25 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
       <c r="B38" s="28"/>
       <c r="D38" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="115" t="s">
+      <c r="E38" s="100" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11"/>
       <c r="B39" s="28"/>
       <c r="D39" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="115"/>
-    </row>
-    <row r="40" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="100"/>
+    </row>
+    <row r="40" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="11"/>
       <c r="D40" s="25" t="s">
         <v>78</v>
@@ -11178,7 +11274,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="10"/>
       <c r="B41" s="28" t="s">
         <v>89</v>
@@ -11186,31 +11282,31 @@
       <c r="D41" s="29"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="11"/>
-      <c r="B42" s="116" t="s">
+      <c r="B42" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="117"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="117"/>
-      <c r="J42" s="117"/>
-      <c r="K42" s="117"/>
-      <c r="L42" s="117"/>
-      <c r="M42" s="118"/>
-    </row>
-    <row r="43" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="102"/>
+      <c r="K42" s="102"/>
+      <c r="L42" s="102"/>
+      <c r="M42" s="103"/>
+    </row>
+    <row r="43" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="10"/>
       <c r="B43" s="4" t="str">
         <f>IF(H13=TRUE,CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED(G13*D47/12*1.1)," µL of F into each well of row D of MM plate"),CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED((I13+1)*D47*1.1)," µL of F into first ",J13," wells and ",FIXED((I13)*D47*1.1)," µL into the other wells of MM plate row D"))</f>
         <v>Prepare Mastermix (F) according to the following table and pipet 9.90 µL of F into first 3 wells and 4.95 µL into the other wells of MM plate row D</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="11"/>
       <c r="D44" s="55" t="s">
         <v>18</v>
@@ -11220,7 +11316,7 @@
         <v xml:space="preserve"> Volume for 15 samples</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="10"/>
       <c r="B45" s="3" t="s">
         <v>15</v>
@@ -11239,7 +11335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="11"/>
       <c r="C46" s="20" t="s">
         <v>92</v>
@@ -11255,7 +11351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="11"/>
       <c r="C47" s="37" t="s">
         <v>93</v>
@@ -11275,7 +11371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
       <c r="B48" s="4" t="s">
         <v>94</v>
@@ -11286,7 +11382,7 @@
       <c r="F48" s="28"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="10"/>
       <c r="B49" s="4" t="s">
         <v>95</v>
@@ -11297,7 +11393,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="10"/>
       <c r="B50" s="4" t="s">
         <v>96</v>
@@ -11308,7 +11404,7 @@
       <c r="F50" s="28"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="10"/>
       <c r="B51" s="3" t="s">
         <v>16</v>
@@ -11317,13 +11413,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11"/>
       <c r="D52" s="39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="11"/>
       <c r="D53" s="29" t="s">
         <v>78</v>
@@ -11332,38 +11428,38 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="11"/>
-      <c r="B54" s="102" t="s">
+      <c r="B54" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="103"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
-      <c r="K54" s="103"/>
-      <c r="L54" s="103"/>
-      <c r="M54" s="104"/>
-    </row>
-    <row r="55" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="91"/>
+      <c r="M54" s="92"/>
+    </row>
+    <row r="55" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="10"/>
       <c r="B55" s="4" t="str">
         <f>IF(H13=TRUE,CONCATENATE("Pipet ",FIXED(G13*D59/12*1.1)," µL of Adaptor (A) into each well of row E of MM plate"),CONCATENATE("Pipet ",FIXED((I13+1)*D59*1.1)," µL of Adaptor (A) into first ",J13," wells and ",FIXED((I13)*D59*1.1)," µL into the other wells of MM plate row E"))</f>
         <v>Pipet 2.75 µL of Adaptor (A) into first 3 wells and 1.38 µL into the other wells of MM plate row E</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="10"/>
       <c r="B56" s="4" t="str">
         <f>IF($H$13=TRUE,CONCATENATE("Pipet ",FIXED(G13*D60/12*1.1)," µL of Ultra II Ligation Master Mix (L) into each well of row F of MM plate"),CONCATENATE("Pipet ",FIXED((I13+1)*D60*1.1)," µL of Ultra II Ligation Master Mix (L) into first ",$J$13," wells and ",FIXED((I13)*D60*1.1)," µL into the other wells of MM plate row F"))</f>
         <v>Pipet 33.00 µL of Ultra II Ligation Master Mix (L) into first 3 wells and 16.50 µL into the other wells of MM plate row F</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="11"/>
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
@@ -11375,7 +11471,7 @@
         <v xml:space="preserve"> Volume for 15 samples</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="10"/>
       <c r="B58" s="3" t="s">
         <v>15</v>
@@ -11393,7 +11489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11"/>
       <c r="C59" s="18" t="s">
         <v>99</v>
@@ -11409,7 +11505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11"/>
       <c r="C60" s="20" t="s">
         <v>100</v>
@@ -11428,7 +11524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="10"/>
       <c r="B61" s="3" t="s">
         <v>16</v>
@@ -11440,14 +11536,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="10"/>
       <c r="B62" s="4" t="str">
         <f>IF($H$13=TRUE,CONCATENATE("Pipet ",FIXED(G13*D65/12*1.1)," µL of User Enzyme (U) into each well of row G of MM plate"),CONCATENATE("Pipet ",FIXED((I13+1)*D65*1.1)," µL of User Enzyme (U) into first ",$J$13," wells and ",FIXED((I13)*D65*1.1)," µL into the other wells of MM plate row G"))</f>
         <v>Pipet 3.30 µL of User Enzyme (U) into first 3 wells and 1.65 µL into the other wells of MM plate row G</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="11"/>
       <c r="C63" s="59"/>
       <c r="D63" s="36" t="s">
@@ -11458,7 +11554,7 @@
         <v xml:space="preserve"> Volume for 15 samples</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="10"/>
       <c r="B64" s="3" t="s">
         <v>15</v>
@@ -11476,7 +11572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="11"/>
       <c r="C65" s="44" t="s">
         <v>102</v>
@@ -11492,7 +11588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="10"/>
       <c r="B66" s="3" t="s">
         <v>16</v>
@@ -11504,38 +11600,38 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="11"/>
-      <c r="B67" s="85" t="s">
+      <c r="B67" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="C67" s="86"/>
-      <c r="D67" s="86"/>
-      <c r="E67" s="86"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="86"/>
-      <c r="H67" s="86"/>
-      <c r="I67" s="86"/>
-      <c r="J67" s="86"/>
-      <c r="K67" s="86"/>
-      <c r="L67" s="86"/>
-      <c r="M67" s="86"/>
-      <c r="N67" s="87"/>
-    </row>
-    <row r="68" spans="1:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="120"/>
+      <c r="D67" s="120"/>
+      <c r="E67" s="120"/>
+      <c r="F67" s="120"/>
+      <c r="G67" s="120"/>
+      <c r="H67" s="120"/>
+      <c r="I67" s="120"/>
+      <c r="J67" s="120"/>
+      <c r="K67" s="120"/>
+      <c r="L67" s="120"/>
+      <c r="M67" s="120"/>
+      <c r="N67" s="121"/>
+    </row>
+    <row r="68" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="10"/>
       <c r="B68" s="3" t="str">
         <f>IF(H13=TRUE,CONCATENATE("Pipet ",FIXED(G13*(D72)/12*1.1)," µL of PCR Master Mix into each well of row H of MM plate"),CONCATENATE("Pipet ",FIXED((I13+1)*(D72)*1.1)," µL of PCR Master Mix into first ",J13," wells and ",FIXED((I13)*(D72)*1.1)," µL into the other wells of MM plate row H"))</f>
         <v>Pipet 27.50 µL of PCR Master Mix into first 3 wells and 13.75 µL into the other wells of MM plate row H</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="10"/>
       <c r="B69" s="72" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11"/>
       <c r="B70" s="62"/>
       <c r="D70" s="36" t="s">
@@ -11546,7 +11642,7 @@
         <v xml:space="preserve"> Volume for 15 samples</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="11"/>
       <c r="C71" s="38" t="s">
         <v>10</v>
@@ -11561,7 +11657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11"/>
       <c r="C72" s="63" t="s">
         <v>106</v>
@@ -11577,7 +11673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="11"/>
       <c r="C73" s="64" t="s">
         <v>107</v>
@@ -11592,7 +11688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="11"/>
       <c r="C74" s="27" t="s">
         <v>108</v>
@@ -11606,7 +11702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="28" t="s">
         <v>22</v>
@@ -11616,7 +11712,7 @@
       </c>
       <c r="H75" s="32"/>
     </row>
-    <row r="76" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11"/>
       <c r="B76" s="12"/>
       <c r="C76" s="13">
@@ -11656,7 +11752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11"/>
       <c r="B77" s="14" t="s">
         <v>0</v>
@@ -11677,7 +11773,7 @@
       <c r="M77" s="15"/>
       <c r="N77" s="16"/>
     </row>
-    <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="14" t="s">
         <v>1</v>
       </c>
@@ -11697,7 +11793,7 @@
       <c r="M78" s="15"/>
       <c r="N78" s="16"/>
     </row>
-    <row r="79" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="14" t="s">
         <v>2</v>
       </c>
@@ -11717,7 +11813,7 @@
       <c r="M79" s="15"/>
       <c r="N79" s="16"/>
     </row>
-    <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="14" t="s">
         <v>3</v>
       </c>
@@ -11737,7 +11833,7 @@
       <c r="M80" s="15"/>
       <c r="N80" s="16"/>
     </row>
-    <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="14" t="s">
         <v>4</v>
       </c>
@@ -11757,7 +11853,7 @@
       <c r="M81" s="15"/>
       <c r="N81" s="16"/>
     </row>
-    <row r="82" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="14" t="s">
         <v>5</v>
       </c>
@@ -11777,7 +11873,7 @@
       <c r="M82" s="15"/>
       <c r="N82" s="16"/>
     </row>
-    <row r="83" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="14" t="s">
         <v>6</v>
       </c>
@@ -11797,7 +11893,7 @@
       <c r="M83" s="15"/>
       <c r="N83" s="16"/>
     </row>
-    <row r="84" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B84" s="14" t="s">
         <v>7</v>
       </c>
@@ -11817,7 +11913,7 @@
       <c r="M84" s="15"/>
       <c r="N84" s="16"/>
     </row>
-    <row r="85" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="10"/>
       <c r="B85" s="3" t="s">
         <v>21</v>
@@ -11827,54 +11923,54 @@
       </c>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11"/>
       <c r="F86" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="G86" s="94" t="s">
+      <c r="G86" s="104" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="11"/>
       <c r="F87" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="G87" s="95"/>
-    </row>
-    <row r="88" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G87" s="105"/>
+    </row>
+    <row r="88" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="11"/>
       <c r="F88" s="25" t="s">
         <v>63</v>
       </c>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F89" s="25" t="s">
         <v>78</v>
       </c>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="11"/>
-      <c r="B90" s="96" t="s">
+      <c r="B90" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="C90" s="97"/>
-      <c r="D90" s="97"/>
-      <c r="E90" s="97"/>
-      <c r="F90" s="97"/>
-      <c r="G90" s="97"/>
-      <c r="H90" s="97"/>
-      <c r="I90" s="97"/>
-      <c r="J90" s="97"/>
-      <c r="K90" s="97"/>
-      <c r="L90" s="97"/>
-      <c r="M90" s="97"/>
-      <c r="N90" s="98"/>
-    </row>
-    <row r="91" spans="1:14" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="107"/>
+      <c r="D90" s="107"/>
+      <c r="E90" s="107"/>
+      <c r="F90" s="107"/>
+      <c r="G90" s="107"/>
+      <c r="H90" s="107"/>
+      <c r="I90" s="107"/>
+      <c r="J90" s="107"/>
+      <c r="K90" s="107"/>
+      <c r="L90" s="107"/>
+      <c r="M90" s="107"/>
+      <c r="N90" s="108"/>
+    </row>
+    <row r="91" spans="1:14" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="30"/>
       <c r="B91" s="67" t="s">
         <v>143</v>
@@ -11885,30 +11981,30 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="34"/>
-      <c r="B92" s="99" t="s">
+      <c r="B92" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="C92" s="100"/>
-      <c r="D92" s="100"/>
-      <c r="E92" s="100"/>
-      <c r="F92" s="100"/>
-      <c r="G92" s="100"/>
-      <c r="H92" s="100"/>
-      <c r="I92" s="100"/>
-      <c r="J92" s="100"/>
-      <c r="K92" s="100"/>
-      <c r="L92" s="100"/>
-      <c r="M92" s="100"/>
-      <c r="N92" s="101"/>
-    </row>
-    <row r="93" spans="1:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C92" s="110"/>
+      <c r="D92" s="110"/>
+      <c r="E92" s="110"/>
+      <c r="F92" s="110"/>
+      <c r="G92" s="110"/>
+      <c r="H92" s="110"/>
+      <c r="I92" s="110"/>
+      <c r="J92" s="110"/>
+      <c r="K92" s="110"/>
+      <c r="L92" s="110"/>
+      <c r="M92" s="110"/>
+      <c r="N92" s="111"/>
+    </row>
+    <row r="93" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="12"/>
       <c r="C94" s="13">
         <v>1</v>
@@ -11947,449 +12043,449 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C95" s="15">
+      <c r="C95" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$2,prep_table!$T$2)</f>
-        <v>1</v>
-      </c>
-      <c r="D95" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D95" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$3,prep_table!$T$10)</f>
-        <v>2</v>
-      </c>
-      <c r="E95" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E95" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$4,prep_table!$T$18)</f>
-        <v>3</v>
-      </c>
-      <c r="F95" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F95" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$5,prep_table!$T$26)</f>
-        <v>4</v>
-      </c>
-      <c r="G95" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G95" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$6,prep_table!$T$34)</f>
-        <v>5</v>
-      </c>
-      <c r="H95" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H95" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$7,prep_table!$T$42)</f>
-        <v>6</v>
-      </c>
-      <c r="I95" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I95" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$8,prep_table!$T$50)</f>
-        <v>7</v>
-      </c>
-      <c r="J95" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J95" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$9,prep_table!$T$58)</f>
-        <v>8</v>
-      </c>
-      <c r="K95" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K95" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$10,prep_table!$T$66)</f>
-        <v>9</v>
-      </c>
-      <c r="L95" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L95" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$11,prep_table!$T$74)</f>
-        <v>10</v>
-      </c>
-      <c r="M95" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M95" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$12,prep_table!$T$82)</f>
-        <v>11</v>
-      </c>
-      <c r="N95" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N95" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$13,prep_table!$T$90)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C96" s="15">
+      <c r="C96" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$14,prep_table!$T$3)</f>
-        <v>13</v>
-      </c>
-      <c r="D96" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D96" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$15,prep_table!$T$11)</f>
-        <v>14</v>
-      </c>
-      <c r="E96" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E96" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$16,prep_table!$T$19)</f>
-        <v>15</v>
-      </c>
-      <c r="F96" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F96" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$17,prep_table!$T$27)</f>
-        <v>16</v>
-      </c>
-      <c r="G96" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G96" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$18,prep_table!$T$35)</f>
-        <v>17</v>
-      </c>
-      <c r="H96" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H96" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$19,prep_table!$T$43)</f>
-        <v>18</v>
-      </c>
-      <c r="I96" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I96" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$20,prep_table!$T$51)</f>
-        <v>19</v>
-      </c>
-      <c r="J96" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J96" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$21,prep_table!$T$59)</f>
-        <v>20</v>
-      </c>
-      <c r="K96" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K96" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$22,prep_table!$T$67)</f>
-        <v>21</v>
-      </c>
-      <c r="L96" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L96" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$23,prep_table!$T$75)</f>
-        <v>22</v>
-      </c>
-      <c r="M96" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M96" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$24,prep_table!$T$83)</f>
-        <v>23</v>
-      </c>
-      <c r="N96" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N96" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$25,prep_table!$T$91)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C97" s="15">
+      <c r="C97" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$26,prep_table!$T$4)</f>
-        <v>25</v>
-      </c>
-      <c r="D97" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D97" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$27,prep_table!$T$12)</f>
-        <v>26</v>
-      </c>
-      <c r="E97" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E97" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$28,prep_table!$T$20)</f>
-        <v>27</v>
-      </c>
-      <c r="F97" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F97" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$29,prep_table!$T$28)</f>
-        <v>28</v>
-      </c>
-      <c r="G97" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G97" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$30,prep_table!$T$36)</f>
-        <v>29</v>
-      </c>
-      <c r="H97" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H97" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$31,prep_table!$T$44)</f>
-        <v>30</v>
-      </c>
-      <c r="I97" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I97" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$32,prep_table!$T$52)</f>
-        <v>31</v>
-      </c>
-      <c r="J97" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J97" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$33,prep_table!$T$60)</f>
-        <v>32</v>
-      </c>
-      <c r="K97" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K97" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$34,prep_table!$T$68)</f>
-        <v>33</v>
-      </c>
-      <c r="L97" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L97" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$35,prep_table!$T$76)</f>
-        <v>34</v>
-      </c>
-      <c r="M97" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M97" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$36,prep_table!$T$84)</f>
-        <v>35</v>
-      </c>
-      <c r="N97" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N97" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$37,prep_table!$T$92)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="15">
+      <c r="C98" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$38,prep_table!$T$5)</f>
-        <v>37</v>
-      </c>
-      <c r="D98" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D98" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$39,prep_table!$T$13)</f>
-        <v>38</v>
-      </c>
-      <c r="E98" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E98" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$40,prep_table!$T$21)</f>
-        <v>39</v>
-      </c>
-      <c r="F98" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F98" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$41,prep_table!$T$29)</f>
-        <v>40</v>
-      </c>
-      <c r="G98" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G98" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$42,prep_table!$T$37)</f>
-        <v>41</v>
-      </c>
-      <c r="H98" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H98" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$43,prep_table!$T$45)</f>
-        <v>42</v>
-      </c>
-      <c r="I98" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I98" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$44,prep_table!$T$53)</f>
-        <v>43</v>
-      </c>
-      <c r="J98" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J98" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$45,prep_table!$T$61)</f>
-        <v>44</v>
-      </c>
-      <c r="K98" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K98" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$46,prep_table!$T$69)</f>
-        <v>45</v>
-      </c>
-      <c r="L98" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L98" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$47,prep_table!$T$77)</f>
-        <v>46</v>
-      </c>
-      <c r="M98" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M98" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$48,prep_table!$T$85)</f>
-        <v>47</v>
-      </c>
-      <c r="N98" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N98" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$49,prep_table!$T$93)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C99" s="15">
+      <c r="C99" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$50,prep_table!$T$6)</f>
-        <v>49</v>
-      </c>
-      <c r="D99" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D99" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$51,prep_table!$T$14)</f>
-        <v>50</v>
-      </c>
-      <c r="E99" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E99" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$52,prep_table!$T$22)</f>
-        <v>51</v>
-      </c>
-      <c r="F99" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F99" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$53,prep_table!$T$30)</f>
-        <v>52</v>
-      </c>
-      <c r="G99" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G99" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$54,prep_table!$T$38)</f>
-        <v>53</v>
-      </c>
-      <c r="H99" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H99" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$55,prep_table!$T$46)</f>
-        <v>54</v>
-      </c>
-      <c r="I99" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I99" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$56,prep_table!$T$54)</f>
-        <v>55</v>
-      </c>
-      <c r="J99" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J99" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$57,prep_table!$T$62)</f>
-        <v>56</v>
-      </c>
-      <c r="K99" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K99" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$58,prep_table!$T$70)</f>
-        <v>57</v>
-      </c>
-      <c r="L99" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L99" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$59,prep_table!$T$78)</f>
-        <v>58</v>
-      </c>
-      <c r="M99" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M99" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$60,prep_table!$T$86)</f>
-        <v>59</v>
-      </c>
-      <c r="N99" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N99" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$61,prep_table!$T$94)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="15">
+      <c r="C100" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$62,prep_table!$T$7)</f>
-        <v>61</v>
-      </c>
-      <c r="D100" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D100" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$63,prep_table!$T$15)</f>
-        <v>62</v>
-      </c>
-      <c r="E100" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E100" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$64,prep_table!$T$23)</f>
-        <v>63</v>
-      </c>
-      <c r="F100" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F100" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$65,prep_table!$T$31)</f>
-        <v>64</v>
-      </c>
-      <c r="G100" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G100" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$66,prep_table!$T$39)</f>
-        <v>65</v>
-      </c>
-      <c r="H100" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$67,prep_table!$T$47)</f>
-        <v>66</v>
-      </c>
-      <c r="I100" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I100" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$68,prep_table!$T$55)</f>
-        <v>67</v>
-      </c>
-      <c r="J100" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J100" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$69,prep_table!$T$63)</f>
-        <v>68</v>
-      </c>
-      <c r="K100" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K100" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$70,prep_table!$T$71)</f>
-        <v>69</v>
-      </c>
-      <c r="L100" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L100" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$71,prep_table!$T$79)</f>
-        <v>70</v>
-      </c>
-      <c r="M100" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M100" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$72,prep_table!$T$87)</f>
-        <v>71</v>
-      </c>
-      <c r="N100" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N100" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$73,prep_table!$T$95)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C101" s="15">
+      <c r="C101" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$74,prep_table!$T$8)</f>
-        <v>73</v>
-      </c>
-      <c r="D101" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D101" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$75,prep_table!$T$16)</f>
-        <v>74</v>
-      </c>
-      <c r="E101" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E101" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$76,prep_table!$T$24)</f>
-        <v>75</v>
-      </c>
-      <c r="F101" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F101" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$77,prep_table!$T$32)</f>
-        <v>76</v>
-      </c>
-      <c r="G101" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G101" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$78,prep_table!$T$40)</f>
-        <v>77</v>
-      </c>
-      <c r="H101" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H101" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$79,prep_table!$T$48)</f>
-        <v>78</v>
-      </c>
-      <c r="I101" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I101" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$80,prep_table!$T$56)</f>
-        <v>79</v>
-      </c>
-      <c r="J101" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J101" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$81,prep_table!$T$64)</f>
-        <v>80</v>
-      </c>
-      <c r="K101" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K101" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$82,prep_table!$T$72)</f>
-        <v>81</v>
-      </c>
-      <c r="L101" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L101" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$83,prep_table!$T$80)</f>
-        <v>82</v>
-      </c>
-      <c r="M101" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M101" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$84,prep_table!$T$88)</f>
-        <v>83</v>
-      </c>
-      <c r="N101" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N101" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$85,prep_table!$T$96)</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B102" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="15">
+      <c r="C102" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$86,prep_table!$T$9)</f>
-        <v>85</v>
-      </c>
-      <c r="D102" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D102" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$87,prep_table!$T$17)</f>
-        <v>86</v>
-      </c>
-      <c r="E102" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E102" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$88,prep_table!$T$25)</f>
-        <v>87</v>
-      </c>
-      <c r="F102" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F102" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$89,prep_table!$T$33)</f>
-        <v>88</v>
-      </c>
-      <c r="G102" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G102" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$90,prep_table!$T$41)</f>
-        <v>89</v>
-      </c>
-      <c r="H102" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H102" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$91,prep_table!$T$49)</f>
-        <v>90</v>
-      </c>
-      <c r="I102" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I102" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$92,prep_table!$T$57)</f>
-        <v>91</v>
-      </c>
-      <c r="J102" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J102" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$93,prep_table!$T$65)</f>
-        <v>92</v>
-      </c>
-      <c r="K102" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K102" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$94,prep_table!$T$73)</f>
-        <v>93</v>
-      </c>
-      <c r="L102" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L102" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$95,prep_table!$T$81)</f>
-        <v>94</v>
-      </c>
-      <c r="M102" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M102" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$96,prep_table!$T$89)</f>
-        <v>95</v>
-      </c>
-      <c r="N102" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N102" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$97,prep_table!$T$97)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="11"/>
-      <c r="B103" s="96" t="s">
+      <c r="B103" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="C103" s="97"/>
-      <c r="D103" s="97"/>
-      <c r="E103" s="97"/>
-      <c r="F103" s="97"/>
-      <c r="G103" s="97"/>
-      <c r="H103" s="97"/>
-      <c r="I103" s="97"/>
-      <c r="J103" s="97"/>
-      <c r="K103" s="97"/>
-      <c r="L103" s="97"/>
-      <c r="M103" s="97"/>
-      <c r="N103" s="98"/>
-    </row>
-    <row r="104" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C103" s="107"/>
+      <c r="D103" s="107"/>
+      <c r="E103" s="107"/>
+      <c r="F103" s="107"/>
+      <c r="G103" s="107"/>
+      <c r="H103" s="107"/>
+      <c r="I103" s="107"/>
+      <c r="J103" s="107"/>
+      <c r="K103" s="107"/>
+      <c r="L103" s="107"/>
+      <c r="M103" s="107"/>
+      <c r="N103" s="108"/>
+    </row>
+    <row r="104" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="30"/>
       <c r="B104" s="67" t="s">
         <v>113</v>
@@ -12400,7 +12496,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="30"/>
       <c r="B105" s="67" t="s">
         <v>114</v>
@@ -12411,7 +12507,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="30"/>
       <c r="B106" s="3" t="s">
         <v>115</v>
@@ -12429,144 +12525,144 @@
       <c r="M106"/>
       <c r="N106"/>
     </row>
-    <row r="107" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="28"/>
       <c r="B107"/>
-      <c r="C107" s="91" t="s">
+      <c r="C107" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="D107" s="91"/>
-      <c r="E107" s="91"/>
-      <c r="F107" s="91"/>
-      <c r="G107" s="91"/>
-      <c r="H107" s="91"/>
-      <c r="I107" s="91"/>
-      <c r="J107" s="91"/>
-      <c r="K107" s="92" t="s">
+      <c r="D107" s="112"/>
+      <c r="E107" s="112"/>
+      <c r="F107" s="112"/>
+      <c r="G107" s="112"/>
+      <c r="H107" s="112"/>
+      <c r="I107" s="112"/>
+      <c r="J107" s="112"/>
+      <c r="K107" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="L107" s="93"/>
+      <c r="L107" s="114"/>
       <c r="M107"/>
       <c r="N107"/>
     </row>
-    <row r="108" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="28"/>
       <c r="B108"/>
-      <c r="C108" s="91" t="s">
+      <c r="C108" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="D108" s="91"/>
-      <c r="E108" s="91"/>
-      <c r="F108" s="91"/>
-      <c r="G108" s="91"/>
-      <c r="H108" s="91"/>
-      <c r="I108" s="91"/>
-      <c r="J108" s="91"/>
-      <c r="K108" s="92" t="s">
+      <c r="D108" s="112"/>
+      <c r="E108" s="112"/>
+      <c r="F108" s="112"/>
+      <c r="G108" s="112"/>
+      <c r="H108" s="112"/>
+      <c r="I108" s="112"/>
+      <c r="J108" s="112"/>
+      <c r="K108" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="L108" s="93"/>
+      <c r="L108" s="114"/>
       <c r="M108"/>
       <c r="N108"/>
     </row>
-    <row r="109" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="28"/>
       <c r="B109"/>
-      <c r="C109" s="91" t="s">
+      <c r="C109" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="D109" s="91"/>
-      <c r="E109" s="91"/>
-      <c r="F109" s="91"/>
-      <c r="G109" s="91"/>
-      <c r="H109" s="91"/>
-      <c r="I109" s="91"/>
-      <c r="J109" s="91"/>
-      <c r="K109" s="92" t="s">
+      <c r="D109" s="112"/>
+      <c r="E109" s="112"/>
+      <c r="F109" s="112"/>
+      <c r="G109" s="112"/>
+      <c r="H109" s="112"/>
+      <c r="I109" s="112"/>
+      <c r="J109" s="112"/>
+      <c r="K109" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="L109" s="93"/>
+      <c r="L109" s="114"/>
       <c r="M109" s="68"/>
       <c r="N109"/>
     </row>
-    <row r="110" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="28"/>
       <c r="B110"/>
-      <c r="C110" s="91" t="s">
+      <c r="C110" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="D110" s="91"/>
-      <c r="E110" s="91"/>
-      <c r="F110" s="91"/>
-      <c r="G110" s="91"/>
-      <c r="H110" s="91"/>
-      <c r="I110" s="91"/>
-      <c r="J110" s="91"/>
-      <c r="K110" s="92" t="s">
+      <c r="D110" s="112"/>
+      <c r="E110" s="112"/>
+      <c r="F110" s="112"/>
+      <c r="G110" s="112"/>
+      <c r="H110" s="112"/>
+      <c r="I110" s="112"/>
+      <c r="J110" s="112"/>
+      <c r="K110" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="L110" s="93"/>
+      <c r="L110" s="114"/>
       <c r="M110" s="68"/>
       <c r="N110"/>
     </row>
-    <row r="111" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="28"/>
       <c r="B111"/>
-      <c r="C111" s="91" t="s">
+      <c r="C111" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="D111" s="91"/>
-      <c r="E111" s="91"/>
-      <c r="F111" s="91"/>
-      <c r="G111" s="91"/>
-      <c r="H111" s="91"/>
-      <c r="I111" s="91"/>
-      <c r="J111" s="91"/>
-      <c r="K111" s="92" t="s">
+      <c r="D111" s="112"/>
+      <c r="E111" s="112"/>
+      <c r="F111" s="112"/>
+      <c r="G111" s="112"/>
+      <c r="H111" s="112"/>
+      <c r="I111" s="112"/>
+      <c r="J111" s="112"/>
+      <c r="K111" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="L111" s="93"/>
+      <c r="L111" s="114"/>
       <c r="M111" s="68"/>
     </row>
-    <row r="112" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="28"/>
       <c r="B112"/>
-      <c r="C112" s="91" t="s">
+      <c r="C112" s="112" t="s">
         <v>126</v>
       </c>
-      <c r="D112" s="91"/>
-      <c r="E112" s="91"/>
-      <c r="F112" s="91"/>
-      <c r="G112" s="91"/>
-      <c r="H112" s="91"/>
-      <c r="I112" s="91"/>
-      <c r="J112" s="91"/>
-      <c r="K112" s="92" t="s">
+      <c r="D112" s="112"/>
+      <c r="E112" s="112"/>
+      <c r="F112" s="112"/>
+      <c r="G112" s="112"/>
+      <c r="H112" s="112"/>
+      <c r="I112" s="112"/>
+      <c r="J112" s="112"/>
+      <c r="K112" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="L112" s="93"/>
+      <c r="L112" s="114"/>
       <c r="M112" s="68"/>
     </row>
-    <row r="113" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="28"/>
       <c r="B113"/>
-      <c r="C113" s="91" t="s">
+      <c r="C113" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="D113" s="91"/>
-      <c r="E113" s="91"/>
-      <c r="F113" s="91"/>
-      <c r="G113" s="91"/>
-      <c r="H113" s="91"/>
-      <c r="I113" s="91"/>
-      <c r="J113" s="91"/>
-      <c r="K113" s="92" t="s">
+      <c r="D113" s="112"/>
+      <c r="E113" s="112"/>
+      <c r="F113" s="112"/>
+      <c r="G113" s="112"/>
+      <c r="H113" s="112"/>
+      <c r="I113" s="112"/>
+      <c r="J113" s="112"/>
+      <c r="K113" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="L113" s="93"/>
+      <c r="L113" s="114"/>
       <c r="M113" s="68"/>
     </row>
-    <row r="114" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="28"/>
       <c r="B114"/>
       <c r="C114" s="69"/>
@@ -12580,158 +12676,112 @@
       <c r="K114" s="31"/>
       <c r="L114" s="31"/>
     </row>
-    <row r="117" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C117" s="88" t="s">
+    <row r="117" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C117" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="D117" s="89"/>
-      <c r="E117" s="90"/>
-      <c r="F117" s="80" t="s">
+      <c r="D117" s="123"/>
+      <c r="E117" s="124"/>
+      <c r="F117" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="G117" s="81"/>
-      <c r="H117" s="81"/>
-      <c r="I117" s="82"/>
-    </row>
-    <row r="118" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C118" s="83" t="s">
+      <c r="G117" s="117"/>
+      <c r="H117" s="117"/>
+      <c r="I117" s="118"/>
+    </row>
+    <row r="118" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C118" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="D118" s="83"/>
-      <c r="E118" s="83"/>
-      <c r="F118" s="83" t="s">
+      <c r="D118" s="115"/>
+      <c r="E118" s="115"/>
+      <c r="F118" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="G118" s="83"/>
-      <c r="H118" s="83"/>
-      <c r="I118" s="83"/>
-    </row>
-    <row r="119" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C119" s="83" t="s">
+      <c r="G118" s="115"/>
+      <c r="H118" s="115"/>
+      <c r="I118" s="115"/>
+    </row>
+    <row r="119" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C119" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="D119" s="83"/>
-      <c r="E119" s="83"/>
-      <c r="F119" s="83" t="s">
+      <c r="D119" s="115"/>
+      <c r="E119" s="115"/>
+      <c r="F119" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="G119" s="83"/>
-      <c r="H119" s="83"/>
-      <c r="I119" s="83"/>
-    </row>
-    <row r="120" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C120" s="80" t="s">
+      <c r="G119" s="115"/>
+      <c r="H119" s="115"/>
+      <c r="I119" s="115"/>
+    </row>
+    <row r="120" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C120" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D120" s="81"/>
-      <c r="E120" s="82"/>
-      <c r="F120" s="83" t="s">
+      <c r="D120" s="117"/>
+      <c r="E120" s="118"/>
+      <c r="F120" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="G120" s="83"/>
-      <c r="H120" s="83"/>
-      <c r="I120" s="83"/>
-    </row>
-    <row r="121" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C121" s="80" t="s">
+      <c r="G120" s="115"/>
+      <c r="H120" s="115"/>
+      <c r="I120" s="115"/>
+    </row>
+    <row r="121" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C121" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="D121" s="81"/>
-      <c r="E121" s="82"/>
-      <c r="F121" s="83" t="s">
+      <c r="D121" s="117"/>
+      <c r="E121" s="118"/>
+      <c r="F121" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="G121" s="83"/>
-      <c r="H121" s="83"/>
-      <c r="I121" s="83"/>
-    </row>
-    <row r="122" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="80" t="s">
+      <c r="G121" s="115"/>
+      <c r="H121" s="115"/>
+      <c r="I121" s="115"/>
+    </row>
+    <row r="122" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C122" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="D122" s="81"/>
-      <c r="E122" s="82"/>
-      <c r="F122" s="83" t="s">
+      <c r="D122" s="117"/>
+      <c r="E122" s="118"/>
+      <c r="F122" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="G122" s="83"/>
-      <c r="H122" s="83"/>
-      <c r="I122" s="83"/>
-    </row>
-    <row r="123" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="80" t="s">
+      <c r="G122" s="115"/>
+      <c r="H122" s="115"/>
+      <c r="I122" s="115"/>
+    </row>
+    <row r="123" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C123" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="D123" s="81"/>
-      <c r="E123" s="82"/>
-      <c r="F123" s="83">
+      <c r="D123" s="117"/>
+      <c r="E123" s="118"/>
+      <c r="F123" s="115">
         <v>20241219</v>
       </c>
-      <c r="G123" s="83"/>
-      <c r="H123" s="83"/>
-      <c r="I123" s="83"/>
-    </row>
-    <row r="124" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="80" t="s">
+      <c r="G123" s="115"/>
+      <c r="H123" s="115"/>
+      <c r="I123" s="115"/>
+    </row>
+    <row r="124" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C124" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="D124" s="81"/>
-      <c r="E124" s="82"/>
-      <c r="F124" s="83">
+      <c r="D124" s="117"/>
+      <c r="E124" s="118"/>
+      <c r="F124" s="115">
         <v>20240926</v>
       </c>
-      <c r="G124" s="83"/>
-      <c r="H124" s="83"/>
-      <c r="I124" s="83"/>
+      <c r="G124" s="115"/>
+      <c r="H124" s="115"/>
+      <c r="I124" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B54:M54"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="B42:M42"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="B90:N90"/>
-    <mergeCell ref="B92:N92"/>
-    <mergeCell ref="B103:N103"/>
-    <mergeCell ref="C107:J107"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="C108:J108"/>
-    <mergeCell ref="K108:L108"/>
-    <mergeCell ref="C109:J109"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="C110:J110"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="C111:J111"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="C112:J112"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="C113:J113"/>
-    <mergeCell ref="K113:L113"/>
     <mergeCell ref="C123:E123"/>
     <mergeCell ref="F123:I123"/>
     <mergeCell ref="C124:E124"/>
@@ -12748,6 +12798,52 @@
     <mergeCell ref="F117:I117"/>
     <mergeCell ref="C118:E118"/>
     <mergeCell ref="F118:I118"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="C111:J111"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="C112:J112"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="C113:J113"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="C108:J108"/>
+    <mergeCell ref="K108:L108"/>
+    <mergeCell ref="C109:J109"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="C110:J110"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="B90:N90"/>
+    <mergeCell ref="B92:N92"/>
+    <mergeCell ref="B103:N103"/>
+    <mergeCell ref="C107:J107"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="B54:M54"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B42:M42"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
@@ -12785,13 +12881,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>84</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>85</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12809,13 +12905,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>73</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
+                    <xdr:rowOff>279400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>75</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12851,15 +12947,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>60</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:colOff>88900</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12903,7 +12999,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12925,7 +13021,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
+                    <xdr:rowOff>279400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12947,7 +13043,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12961,7 +13057,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -12985,7 +13081,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>314325</xdr:rowOff>
+                    <xdr:rowOff>317500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -13005,13 +13101,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13029,13 +13125,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>85725</xdr:rowOff>
+                    <xdr:rowOff>88900</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13051,13 +13147,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>85725</xdr:rowOff>
+                    <xdr:rowOff>88900</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13079,7 +13175,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13101,7 +13197,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13161,7 +13257,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>89</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -13189,7 +13285,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13211,7 +13307,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>66</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13271,7 +13367,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>89</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -13293,7 +13389,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>102</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -13315,7 +13411,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>102</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -13337,7 +13433,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>103</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -13359,7 +13455,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>103</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -13387,7 +13483,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>106</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13426,217 +13522,217 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F039DA3-35FA-4F89-9CE3-D4CC8E1D1E4C}">
   <dimension ref="A1:AK125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121:I121"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="65" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" style="4" customWidth="1"/>
     <col min="3" max="3" width="15" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
-    <col min="8" max="11" width="7.42578125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="4" customWidth="1"/>
+    <col min="8" max="11" width="7.453125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" style="4" customWidth="1"/>
     <col min="13" max="13" width="8" style="4" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="4"/>
-    <col min="16" max="16" width="8.140625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="5.85546875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="4" customWidth="1"/>
-    <col min="22" max="22" width="5.42578125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="6.140625" style="4" customWidth="1"/>
-    <col min="24" max="25" width="5.85546875" style="4" customWidth="1"/>
-    <col min="26" max="27" width="6.42578125" style="4" customWidth="1"/>
-    <col min="28" max="28" width="6.140625" style="4" customWidth="1"/>
-    <col min="29" max="29" width="5.85546875" style="4" customWidth="1"/>
-    <col min="30" max="31" width="8.85546875" style="4"/>
-    <col min="32" max="32" width="9.42578125" style="4" customWidth="1"/>
-    <col min="33" max="16384" width="8.85546875" style="4"/>
+    <col min="14" max="14" width="8.453125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.81640625" style="4"/>
+    <col min="16" max="16" width="8.1796875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="5.453125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="5.81640625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="5.453125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="5.81640625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="5.453125" style="4" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" style="4" customWidth="1"/>
+    <col min="24" max="25" width="5.81640625" style="4" customWidth="1"/>
+    <col min="26" max="27" width="6.453125" style="4" customWidth="1"/>
+    <col min="28" max="28" width="6.1796875" style="4" customWidth="1"/>
+    <col min="29" max="29" width="5.81640625" style="4" customWidth="1"/>
+    <col min="30" max="31" width="8.81640625" style="4"/>
+    <col min="32" max="32" width="9.453125" style="4" customWidth="1"/>
+    <col min="33" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="5"/>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+    <row r="2" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
-    </row>
-    <row r="3" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
+    </row>
+    <row r="3" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="107"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83"/>
       <c r="L3" s="6" t="s">
         <v>66</v>
       </c>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:37" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+    <row r="4" spans="1:37" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="119" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="120"/>
+      <c r="L4" s="86"/>
       <c r="M4" s="7"/>
       <c r="AK4" s="8"/>
     </row>
-    <row r="5" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
+    <row r="5" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="107"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="83"/>
       <c r="AK5" s="8"/>
     </row>
-    <row r="6" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+    <row r="6" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="46"/>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
       <c r="J6" s="48"/>
       <c r="AK6" s="8"/>
     </row>
-    <row r="7" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="121" t="s">
+    <row r="7" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="123"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="89"/>
       <c r="G7" s="46"/>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
       <c r="J7" s="48"/>
       <c r="AK7" s="8"/>
     </row>
-    <row r="8" spans="1:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+    <row r="8" spans="1:37" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="107"/>
-    </row>
-    <row r="9" spans="1:37" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83"/>
+    </row>
+    <row r="9" spans="1:37" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="107"/>
-    </row>
-    <row r="10" spans="1:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="83"/>
+    </row>
+    <row r="10" spans="1:37" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="107"/>
-    </row>
-    <row r="11" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="83"/>
+    </row>
+    <row r="11" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="107"/>
-    </row>
-    <row r="12" spans="1:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="83"/>
+    </row>
+    <row r="12" spans="1:37" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
       <c r="G12" s="70"/>
       <c r="H12" s="9" t="b">
         <f>MOD(G12,8)=0</f>
@@ -13652,23 +13748,25 @@
       </c>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:37" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84" t="s">
+    <row r="13" spans="1:37" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="71"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="71">
+        <v>48</v>
+      </c>
       <c r="H13" s="9" t="b">
         <f>MOD(G13,12)=0</f>
         <v>1</v>
       </c>
       <c r="I13" s="9">
         <f>ROUNDDOWN((G13/12),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" s="9">
         <f>G13-I13*12</f>
@@ -13676,37 +13774,37 @@
       </c>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="111"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="96"/>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="3" t="str">
         <f>IF(ISNUMBER($G$13),IF($H$13=TRUE,CONCATENATE("Pipet ",FIXED($G$13*D17/12*1.1)," µL of LunaScript RT SuperMix into each well of row A of MM plate"),CONCATENATE("Pipet ",FIXED(($I$13+1)*D17*1.1)," µL of LunaScript RT SuperMix into first ",$J$13," wells and ",FIXED(($I$13)*D17*1.1)," µL into the other wells of MM plate row A")), IF($H$12=TRUE,CONCATENATE("Pipet ",FIXED($G$12*D17/8*1.1)," µL of FS1 into each well of column 1 of MM plate"),CONCATENATE("Pipet ",FIXED(($I$12+1)*D17*1.1)," µL of FS1 into first ",$J$12," wells and ",FIXED(($I$12)*D17*1.1)," µL into the other wells of MM plate column 1")))</f>
-        <v>Pipet 0.00 µL of FS1 into each well of column 1 of MM plate</v>
+        <v>Pipet 8.80 µL of LunaScript RT SuperMix into each well of row A of MM plate</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="O15" s="17"/>
     </row>
-    <row r="16" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
         <v>15</v>
@@ -13723,7 +13821,7 @@
       <c r="O16" s="17"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11"/>
       <c r="B17" s="3"/>
       <c r="C17" s="45" t="s">
@@ -13737,7 +13835,7 @@
       </c>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" spans="1:15" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
       <c r="B18" s="3"/>
       <c r="C18" s="23"/>
@@ -13752,7 +13850,7 @@
       </c>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
         <v>16</v>
@@ -13766,7 +13864,7 @@
       <c r="F19" s="26"/>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="3"/>
       <c r="D20" s="25" t="s">
@@ -13776,7 +13874,7 @@
       <c r="F20" s="26"/>
       <c r="O20" s="17"/>
     </row>
-    <row r="21" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="3"/>
       <c r="D21" s="25" t="s">
@@ -13786,7 +13884,7 @@
       <c r="F21" s="26"/>
       <c r="O21" s="17"/>
     </row>
-    <row r="22" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11"/>
       <c r="B22" s="3"/>
       <c r="D22" s="25" t="s">
@@ -13795,7 +13893,7 @@
       <c r="F22" s="3"/>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
         <v>79</v>
@@ -13803,34 +13901,34 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24"/>
-      <c r="B24" s="112" t="s">
+      <c r="B24" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="114"/>
-    </row>
-    <row r="25" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="99"/>
+    </row>
+    <row r="25" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
       <c r="B25" s="3" t="str">
         <f>IF($H$13=TRUE,CONCATENATE("Prepare Mastermix (P1) according to the following table and pipet ",FIXED(G13*D30/12*1.1)," µL into each well of row B of MM plate"),CONCATENATE("Prepare Mastermix (P1) according to the following table and pipet ",FIXED((I13+1)*D30*1.1)," µL into first ",$J$13," wells and ",FIXED((I13)*D30*1.1)," µL into the other wells of MM plate row B"))</f>
-        <v>Prepare Mastermix (P1) according to the following table and pipet 0.00 µL into each well of row B of MM plate</v>
+        <v>Prepare Mastermix (P1) according to the following table and pipet 35.20 µL into each well of row B of MM plate</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -13839,10 +13937,10 @@
       </c>
       <c r="E26" s="52" t="str">
         <f>IF(ISNUMBER($G$13),CONCATENATE(" Volume for ",$G$13," samples"),CONCATENATE(" Volume for ",$G$12," samples"))</f>
-        <v xml:space="preserve"> Volume for  samples</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve"> Volume for 48 samples</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" s="3"/>
       <c r="C27" s="45" t="s">
@@ -13856,7 +13954,7 @@
       </c>
       <c r="F27" s="22"/>
     </row>
-    <row r="28" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
       <c r="C28" s="53" t="s">
         <v>81</v>
@@ -13866,13 +13964,13 @@
       </c>
       <c r="E28" s="27">
         <f>D28*$G$13*1.1</f>
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="F28" s="50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="C29" s="43" t="s">
         <v>82</v>
@@ -13882,13 +13980,13 @@
       </c>
       <c r="E29" s="21">
         <f>D29*$G$13*1.1</f>
-        <v>0</v>
+        <v>92.4</v>
       </c>
       <c r="F29" s="49" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="C30" s="23"/>
       <c r="D30" s="24">
@@ -13896,7 +13994,7 @@
       </c>
       <c r="E30" s="27">
         <f>E28+E29</f>
-        <v>0</v>
+        <v>422.4</v>
       </c>
       <c r="F30" s="50" t="s">
         <v>17</v>
@@ -13905,16 +14003,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
       <c r="B31" s="3" t="str">
         <f>IF($H$13=TRUE,CONCATENATE("Prepare Mastermix (P2) according to the following table and pipet ",FIXED($G$13*D36/12*1.1)," µL into each well of row C of MM plate"),CONCATENATE("Prepare Mastermix (P2) according to the following table and pipet ",FIXED((I13+1)*D36*1.1)," µL into first ",$J$13," wells and ",FIXED((I13)*D36*1.1)," µL into the other wells of MM plate row C"))</f>
-        <v>Prepare Mastermix (P2) according to the following table and pipet 0.00 µL into each well of row C of MM plate</v>
+        <v>Prepare Mastermix (P2) according to the following table and pipet 35.20 µL into each well of row C of MM plate</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -13923,10 +14021,10 @@
       </c>
       <c r="E32" s="52" t="str">
         <f>IF(ISNUMBER($G$13),CONCATENATE(" Volume for ",$G$13," samples"),CONCATENATE(" Volume for ",$G$12," samples"))</f>
-        <v xml:space="preserve"> Volume for  samples</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve"> Volume for 48 samples</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="11"/>
       <c r="B33" s="3"/>
       <c r="C33" s="45" t="s">
@@ -13940,7 +14038,7 @@
       </c>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
       <c r="C34" s="53" t="s">
         <v>81</v>
@@ -13950,13 +14048,13 @@
       </c>
       <c r="E34" s="27">
         <f>D34*$G$13*1.1</f>
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="F34" s="50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="11"/>
       <c r="C35" s="43" t="s">
         <v>83</v>
@@ -13966,13 +14064,13 @@
       </c>
       <c r="E35" s="21">
         <f>D35*$G$13*1.1</f>
-        <v>0</v>
+        <v>92.4</v>
       </c>
       <c r="F35" s="49" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="11"/>
       <c r="C36" s="23"/>
       <c r="D36" s="24">
@@ -13980,7 +14078,7 @@
       </c>
       <c r="E36" s="27">
         <f>E34+E35</f>
-        <v>0</v>
+        <v>422.4</v>
       </c>
       <c r="F36" s="50" t="s">
         <v>17</v>
@@ -13989,7 +14087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="10"/>
       <c r="B37" s="28" t="s">
         <v>16</v>
@@ -14001,25 +14099,25 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
       <c r="B38" s="28"/>
       <c r="D38" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="115" t="s">
+      <c r="E38" s="100" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11"/>
       <c r="B39" s="28"/>
       <c r="D39" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="115"/>
-    </row>
-    <row r="40" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="100"/>
+    </row>
+    <row r="40" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="11"/>
       <c r="D40" s="25" t="s">
         <v>78</v>
@@ -14028,7 +14126,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="10"/>
       <c r="B41" s="28" t="s">
         <v>89</v>
@@ -14036,66 +14134,66 @@
       <c r="D41" s="29"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="11"/>
-      <c r="B42" s="96" t="s">
+      <c r="B42" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
-      <c r="L42" s="97"/>
-      <c r="M42" s="97"/>
-      <c r="N42" s="98"/>
-    </row>
-    <row r="43" spans="1:14" s="3" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="107"/>
+      <c r="N42" s="108"/>
+    </row>
+    <row r="43" spans="1:14" s="3" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="30"/>
       <c r="B43" s="67" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="11"/>
-      <c r="B44" s="116" t="s">
+      <c r="B44" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="117"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="117"/>
-      <c r="K44" s="117"/>
-      <c r="L44" s="117"/>
-      <c r="M44" s="117"/>
-      <c r="N44" s="118"/>
-    </row>
-    <row r="45" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="102"/>
+      <c r="L44" s="102"/>
+      <c r="M44" s="102"/>
+      <c r="N44" s="103"/>
+    </row>
+    <row r="45" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="10"/>
       <c r="B45" s="3" t="str">
         <f>IF(H13=TRUE,CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED(G13*D50/12*1.1)," µL of F into each well of row D of MM plate"),CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED((I13+1)*D50*1.1)," µL of F into first ",J13," wells and ",FIXED((I13)*D50*1.1)," µL into the other wells of MM plate row D"))</f>
-        <v>Prepare Mastermix (F) according to the following table and pipet 0.00 µL of F into each well of row D of MM plate</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+        <v>Prepare Mastermix (F) according to the following table and pipet 19.80 µL of F into each well of row D of MM plate</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="31" x14ac:dyDescent="0.35">
       <c r="A46" s="11"/>
       <c r="D46" s="55" t="s">
         <v>18</v>
       </c>
       <c r="E46" s="36" t="str">
         <f>IF(ISNUMBER($G$13),CONCATENATE(" Volume for ",$G$13," samples"),CONCATENATE(" Volume for ",$G$12," samples"))</f>
-        <v xml:space="preserve"> Volume for  samples</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve"> Volume for 48 samples</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="11"/>
       <c r="C47" s="73" t="s">
         <v>19</v>
@@ -14110,7 +14208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
       <c r="B48" s="3" t="s">
         <v>15</v>
@@ -14123,13 +14221,13 @@
       </c>
       <c r="E48" s="27">
         <f>D48*$G$13*1.1</f>
-        <v>0</v>
+        <v>184.8</v>
       </c>
       <c r="F48" s="42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="11"/>
       <c r="C49" s="20" t="s">
         <v>92</v>
@@ -14139,13 +14237,13 @@
       </c>
       <c r="E49" s="21">
         <f>D49*$G$13*1.1</f>
-        <v>0</v>
+        <v>52.800000000000004</v>
       </c>
       <c r="F49" s="42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="11"/>
       <c r="C50" s="37" t="s">
         <v>93</v>
@@ -14156,7 +14254,7 @@
       </c>
       <c r="E50" s="24">
         <f>SUM(E48:E49)</f>
-        <v>0</v>
+        <v>237.60000000000002</v>
       </c>
       <c r="F50" s="58" t="s">
         <v>17</v>
@@ -14165,7 +14263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="10"/>
       <c r="B51" s="3" t="s">
         <v>16</v>
@@ -14174,13 +14272,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11"/>
       <c r="D52" s="39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="11"/>
       <c r="D53" s="29" t="s">
         <v>78</v>
@@ -14189,39 +14287,39 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="11"/>
-      <c r="B54" s="102" t="s">
+      <c r="B54" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="103"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
-      <c r="K54" s="103"/>
-      <c r="L54" s="103"/>
-      <c r="M54" s="103"/>
-      <c r="N54" s="104"/>
-    </row>
-    <row r="55" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="91"/>
+      <c r="M54" s="91"/>
+      <c r="N54" s="92"/>
+    </row>
+    <row r="55" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="10"/>
       <c r="B55" s="4" t="str">
         <f>IF(H13=TRUE,CONCATENATE("Pipet ",FIXED(G13*D59/12*1.1)," µL of Adaptor (A) into each well of row E of MM plate"),CONCATENATE("Pipet ",FIXED((I13+1)*D59*1.1)," µL of Adaptor (A) into first ",J13," wells and ",FIXED((I13)*D59*1.1)," µL into the other wells of MM plate row E"))</f>
-        <v>Pipet 0.00 µL of Adaptor (A) into each well of row E of MM plate</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>Pipet 5.50 µL of Adaptor (A) into each well of row E of MM plate</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="10"/>
       <c r="B56" s="4" t="str">
         <f>IF($H$13=TRUE,CONCATENATE("Pipet ",FIXED(G13*D60/12*1.1)," µL of Ultra II Ligation Master Mix (L) into each well of row F of MM plate"),CONCATENATE("Pipet ",FIXED((I13+1)*D60*1.1)," µL of Ultra II Ligation Master Mix (L) into first ",$J$13," wells and ",FIXED((I13)*D60*1.1)," µL into the other wells of MM plate row F"))</f>
-        <v>Pipet 0.00 µL of Ultra II Ligation Master Mix (L) into each well of row F of MM plate</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>Pipet 66.00 µL of Ultra II Ligation Master Mix (L) into each well of row F of MM plate</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="11"/>
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
@@ -14230,10 +14328,10 @@
       </c>
       <c r="E57" s="36" t="str">
         <f>IF(ISNUMBER($G$13),CONCATENATE(" Volume for ",$G$13," samples"),CONCATENATE(" Volume for ",$G$12," samples"))</f>
-        <v xml:space="preserve"> Volume for  samples</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve"> Volume for 48 samples</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="10"/>
       <c r="B58" s="3" t="s">
         <v>15</v>
@@ -14251,7 +14349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11"/>
       <c r="C59" s="18" t="s">
         <v>99</v>
@@ -14261,13 +14359,13 @@
       </c>
       <c r="E59" s="19">
         <f>1.25*G13</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F59" s="42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11"/>
       <c r="C60" s="20" t="s">
         <v>100</v>
@@ -14277,7 +14375,7 @@
       </c>
       <c r="E60" s="22">
         <f>D60*$G$13*1.1</f>
-        <v>0</v>
+        <v>792.00000000000011</v>
       </c>
       <c r="F60" s="49" t="s">
         <v>17</v>
@@ -14286,7 +14384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="10"/>
       <c r="B61" s="3" t="s">
         <v>16</v>
@@ -14298,14 +14396,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="10"/>
       <c r="B62" s="4" t="str">
         <f>IF($H$13=TRUE,CONCATENATE("Pipet ",FIXED(G13*D65/12*1.1)," µL of User Enzyme (U) into each well of row G of MM plate"),CONCATENATE("Pipet ",FIXED((I13+1)*D65*1.1)," µL of User Enzyme (U) into first ",$J$13," wells and ",FIXED((I13)*D65*1.1)," µL into the other wells of MM plate row G"))</f>
-        <v>Pipet 0.00 µL of User Enzyme (U) into each well of row G of MM plate</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>Pipet 6.60 µL of User Enzyme (U) into each well of row G of MM plate</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="11"/>
       <c r="C63" s="59"/>
       <c r="D63" s="36" t="s">
@@ -14313,10 +14411,10 @@
       </c>
       <c r="E63" s="36" t="str">
         <f>IF(ISNUMBER($G$13),CONCATENATE(" Volume for ",$G$13," samples"),CONCATENATE(" Volume for ",$G$12," samples"))</f>
-        <v xml:space="preserve"> Volume for  samples</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve"> Volume for 48 samples</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="10"/>
       <c r="B64" s="3" t="s">
         <v>15</v>
@@ -14325,7 +14423,8 @@
         <v>19</v>
       </c>
       <c r="D64" s="19">
-        <v>19.75</v>
+        <f>19.75+15</f>
+        <v>34.75</v>
       </c>
       <c r="E64" s="33" t="s">
         <v>39</v>
@@ -14334,7 +14433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="11"/>
       <c r="C65" s="44" t="s">
         <v>102</v>
@@ -14344,13 +14443,13 @@
       </c>
       <c r="E65" s="19">
         <f>D65*$G$13*1.1</f>
-        <v>0</v>
+        <v>79.2</v>
       </c>
       <c r="F65" s="42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="10"/>
       <c r="B66" s="3" t="s">
         <v>16</v>
@@ -14362,56 +14461,56 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="11"/>
-      <c r="B67" s="96" t="s">
+      <c r="B67" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="97"/>
-      <c r="D67" s="97"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="97"/>
-      <c r="G67" s="97"/>
-      <c r="H67" s="97"/>
-      <c r="I67" s="97"/>
-      <c r="J67" s="97"/>
-      <c r="K67" s="97"/>
-      <c r="L67" s="97"/>
-      <c r="M67" s="97"/>
-      <c r="N67" s="98"/>
-    </row>
-    <row r="68" spans="1:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="107"/>
+      <c r="D67" s="107"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="107"/>
+      <c r="G67" s="107"/>
+      <c r="H67" s="107"/>
+      <c r="I67" s="107"/>
+      <c r="J67" s="107"/>
+      <c r="K67" s="107"/>
+      <c r="L67" s="107"/>
+      <c r="M67" s="107"/>
+      <c r="N67" s="108"/>
+    </row>
+    <row r="68" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="10"/>
       <c r="B68" s="67" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="11"/>
-      <c r="B69" s="85" t="s">
+      <c r="B69" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="C69" s="86"/>
-      <c r="D69" s="86"/>
-      <c r="E69" s="86"/>
-      <c r="F69" s="86"/>
-      <c r="G69" s="86"/>
-      <c r="H69" s="86"/>
-      <c r="I69" s="86"/>
-      <c r="J69" s="86"/>
-      <c r="K69" s="86"/>
-      <c r="L69" s="86"/>
-      <c r="M69" s="86"/>
-      <c r="N69" s="87"/>
-    </row>
-    <row r="70" spans="1:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="120"/>
+      <c r="D69" s="120"/>
+      <c r="E69" s="120"/>
+      <c r="F69" s="120"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
+      <c r="M69" s="120"/>
+      <c r="N69" s="121"/>
+    </row>
+    <row r="70" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="10"/>
       <c r="B70" s="3" t="str">
         <f>IF(H13=TRUE,CONCATENATE("Pipet ",FIXED(G13*(D73)/12*1.1)," µL of PCR Master Mix into each well of row H of MM plate"),CONCATENATE("Pipet",FIXED((I13+1)*(D73)*1.1)," µL of PCR Master Mix into first ",J13," wells and ",FIXED((I13)*(D73)*1.1)," µL into the other wells of MM plate row H"))</f>
-        <v>Pipet 0.00 µL of PCR Master Mix into each well of row H of MM plate</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Pipet 55.00 µL of PCR Master Mix into each well of row H of MM plate</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="11"/>
       <c r="B71" s="62"/>
       <c r="D71" s="36" t="s">
@@ -14419,10 +14518,10 @@
       </c>
       <c r="E71" s="52" t="str">
         <f>IF(ISNUMBER($G$13),CONCATENATE(" Volume for ",$G$13," samples"),CONCATENATE(" Volume for ",$G$12," samples"))</f>
-        <v xml:space="preserve"> Volume for  samples</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve"> Volume for 48 samples</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="11"/>
       <c r="C72" s="38" t="s">
         <v>10</v>
@@ -14437,7 +14536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="11"/>
       <c r="C73" s="63" t="s">
         <v>106</v>
@@ -14447,13 +14546,13 @@
       </c>
       <c r="E73" s="27">
         <f>D73*G13*1.1</f>
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="F73" s="50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="11"/>
       <c r="C74" s="64" t="s">
         <v>107</v>
@@ -14468,7 +14567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="11"/>
       <c r="C75" s="27" t="s">
         <v>108</v>
@@ -14482,7 +14581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="34"/>
       <c r="B76" s="28" t="s">
         <v>22</v>
@@ -14492,7 +14591,7 @@
       </c>
       <c r="H76" s="32"/>
     </row>
-    <row r="77" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11"/>
       <c r="B77" s="12"/>
       <c r="C77" s="13">
@@ -14532,7 +14631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11"/>
       <c r="B78" s="14" t="s">
         <v>0</v>
@@ -14550,7 +14649,7 @@
       <c r="M78" s="78"/>
       <c r="N78" s="78"/>
     </row>
-    <row r="79" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="14" t="s">
         <v>1</v>
       </c>
@@ -14567,7 +14666,7 @@
       <c r="M79" s="78"/>
       <c r="N79" s="78"/>
     </row>
-    <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="14" t="s">
         <v>2</v>
       </c>
@@ -14584,7 +14683,7 @@
       <c r="M80" s="78"/>
       <c r="N80" s="78"/>
     </row>
-    <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="14" t="s">
         <v>3</v>
       </c>
@@ -14601,7 +14700,7 @@
       <c r="M81" s="78"/>
       <c r="N81" s="78"/>
     </row>
-    <row r="82" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="14" t="s">
         <v>4</v>
       </c>
@@ -14618,7 +14717,7 @@
       <c r="M82" s="78"/>
       <c r="N82" s="78"/>
     </row>
-    <row r="83" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="14" t="s">
         <v>5</v>
       </c>
@@ -14635,7 +14734,7 @@
       <c r="M83" s="78"/>
       <c r="N83" s="78"/>
     </row>
-    <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="14" t="s">
         <v>6</v>
       </c>
@@ -14652,7 +14751,7 @@
       <c r="M84" s="78"/>
       <c r="N84" s="78"/>
     </row>
-    <row r="85" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B85" s="14" t="s">
         <v>7</v>
       </c>
@@ -14669,7 +14768,7 @@
       <c r="M85" s="78"/>
       <c r="N85" s="78"/>
     </row>
-    <row r="86" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="10"/>
       <c r="B86" s="3" t="s">
         <v>21</v>
@@ -14679,54 +14778,54 @@
       </c>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="11"/>
       <c r="F87" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="G87" s="94" t="s">
+      <c r="G87" s="104" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="11"/>
       <c r="F88" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="G88" s="95"/>
-    </row>
-    <row r="89" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G88" s="105"/>
+    </row>
+    <row r="89" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="11"/>
       <c r="F89" s="25" t="s">
         <v>63</v>
       </c>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F90" s="25" t="s">
         <v>78</v>
       </c>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="11"/>
-      <c r="B91" s="96" t="s">
+      <c r="B91" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="C91" s="97"/>
-      <c r="D91" s="97"/>
-      <c r="E91" s="97"/>
-      <c r="F91" s="97"/>
-      <c r="G91" s="97"/>
-      <c r="H91" s="97"/>
-      <c r="I91" s="97"/>
-      <c r="J91" s="97"/>
-      <c r="K91" s="97"/>
-      <c r="L91" s="97"/>
-      <c r="M91" s="97"/>
-      <c r="N91" s="98"/>
-    </row>
-    <row r="92" spans="1:14" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="107"/>
+      <c r="D91" s="107"/>
+      <c r="E91" s="107"/>
+      <c r="F91" s="107"/>
+      <c r="G91" s="107"/>
+      <c r="H91" s="107"/>
+      <c r="I91" s="107"/>
+      <c r="J91" s="107"/>
+      <c r="K91" s="107"/>
+      <c r="L91" s="107"/>
+      <c r="M91" s="107"/>
+      <c r="N91" s="108"/>
+    </row>
+    <row r="92" spans="1:14" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="30"/>
       <c r="B92" s="67" t="s">
         <v>136</v>
@@ -14737,30 +14836,30 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="34"/>
-      <c r="B93" s="99" t="s">
+      <c r="B93" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="C93" s="100"/>
-      <c r="D93" s="100"/>
-      <c r="E93" s="100"/>
-      <c r="F93" s="100"/>
-      <c r="G93" s="100"/>
-      <c r="H93" s="100"/>
-      <c r="I93" s="100"/>
-      <c r="J93" s="100"/>
-      <c r="K93" s="100"/>
-      <c r="L93" s="100"/>
-      <c r="M93" s="100"/>
-      <c r="N93" s="101"/>
-    </row>
-    <row r="94" spans="1:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="110"/>
+      <c r="D93" s="110"/>
+      <c r="E93" s="110"/>
+      <c r="F93" s="110"/>
+      <c r="G93" s="110"/>
+      <c r="H93" s="110"/>
+      <c r="I93" s="110"/>
+      <c r="J93" s="110"/>
+      <c r="K93" s="110"/>
+      <c r="L93" s="110"/>
+      <c r="M93" s="110"/>
+      <c r="N93" s="111"/>
+    </row>
+    <row r="94" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="12"/>
       <c r="C95" s="13">
         <v>1</v>
@@ -14799,449 +14898,449 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C96" s="15">
+      <c r="C96" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$2,prep_table!$T$2)</f>
-        <v>1</v>
-      </c>
-      <c r="D96" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D96" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$3,prep_table!$T$10)</f>
-        <v>9</v>
-      </c>
-      <c r="E96" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E96" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$4,prep_table!$T$18)</f>
-        <v>17</v>
-      </c>
-      <c r="F96" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F96" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$5,prep_table!$T$26)</f>
-        <v>25</v>
-      </c>
-      <c r="G96" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G96" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$6,prep_table!$T$34)</f>
-        <v>33</v>
-      </c>
-      <c r="H96" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H96" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$7,prep_table!$T$42)</f>
-        <v>41</v>
-      </c>
-      <c r="I96" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I96" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$8,prep_table!$T$50)</f>
-        <v>49</v>
-      </c>
-      <c r="J96" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J96" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$9,prep_table!$T$58)</f>
-        <v>57</v>
-      </c>
-      <c r="K96" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K96" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$10,prep_table!$T$66)</f>
-        <v>65</v>
-      </c>
-      <c r="L96" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L96" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$11,prep_table!$T$74)</f>
-        <v>73</v>
-      </c>
-      <c r="M96" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M96" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$12,prep_table!$T$82)</f>
-        <v>81</v>
-      </c>
-      <c r="N96" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N96" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$13,prep_table!$T$90)</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C97" s="15">
+      <c r="C97" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$14,prep_table!$T$3)</f>
-        <v>2</v>
-      </c>
-      <c r="D97" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D97" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$15,prep_table!$T$11)</f>
-        <v>10</v>
-      </c>
-      <c r="E97" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E97" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$16,prep_table!$T$19)</f>
-        <v>18</v>
-      </c>
-      <c r="F97" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F97" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$17,prep_table!$T$27)</f>
-        <v>26</v>
-      </c>
-      <c r="G97" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G97" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$18,prep_table!$T$35)</f>
-        <v>34</v>
-      </c>
-      <c r="H97" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H97" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$19,prep_table!$T$43)</f>
-        <v>42</v>
-      </c>
-      <c r="I97" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I97" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$20,prep_table!$T$51)</f>
-        <v>50</v>
-      </c>
-      <c r="J97" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J97" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$21,prep_table!$T$59)</f>
-        <v>58</v>
-      </c>
-      <c r="K97" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K97" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$22,prep_table!$T$67)</f>
-        <v>66</v>
-      </c>
-      <c r="L97" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L97" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$23,prep_table!$T$75)</f>
-        <v>74</v>
-      </c>
-      <c r="M97" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M97" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$24,prep_table!$T$83)</f>
-        <v>82</v>
-      </c>
-      <c r="N97" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N97" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$25,prep_table!$T$91)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C98" s="15">
+      <c r="C98" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$26,prep_table!$T$4)</f>
-        <v>3</v>
-      </c>
-      <c r="D98" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D98" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$27,prep_table!$T$12)</f>
-        <v>11</v>
-      </c>
-      <c r="E98" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E98" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$28,prep_table!$T$20)</f>
-        <v>19</v>
-      </c>
-      <c r="F98" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F98" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$29,prep_table!$T$28)</f>
-        <v>27</v>
-      </c>
-      <c r="G98" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G98" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$30,prep_table!$T$36)</f>
-        <v>35</v>
-      </c>
-      <c r="H98" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H98" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$31,prep_table!$T$44)</f>
-        <v>43</v>
-      </c>
-      <c r="I98" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I98" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$32,prep_table!$T$52)</f>
-        <v>51</v>
-      </c>
-      <c r="J98" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J98" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$33,prep_table!$T$60)</f>
-        <v>59</v>
-      </c>
-      <c r="K98" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K98" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$34,prep_table!$T$68)</f>
-        <v>67</v>
-      </c>
-      <c r="L98" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L98" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$35,prep_table!$T$76)</f>
-        <v>75</v>
-      </c>
-      <c r="M98" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M98" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$36,prep_table!$T$84)</f>
-        <v>83</v>
-      </c>
-      <c r="N98" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N98" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$37,prep_table!$T$92)</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="15">
+      <c r="C99" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$38,prep_table!$T$5)</f>
-        <v>4</v>
-      </c>
-      <c r="D99" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D99" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$39,prep_table!$T$13)</f>
-        <v>12</v>
-      </c>
-      <c r="E99" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E99" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$40,prep_table!$T$21)</f>
-        <v>20</v>
-      </c>
-      <c r="F99" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F99" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$41,prep_table!$T$29)</f>
-        <v>28</v>
-      </c>
-      <c r="G99" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G99" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$42,prep_table!$T$37)</f>
-        <v>36</v>
-      </c>
-      <c r="H99" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H99" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$43,prep_table!$T$45)</f>
-        <v>44</v>
-      </c>
-      <c r="I99" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I99" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$44,prep_table!$T$53)</f>
-        <v>52</v>
-      </c>
-      <c r="J99" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J99" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$45,prep_table!$T$61)</f>
-        <v>60</v>
-      </c>
-      <c r="K99" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K99" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$46,prep_table!$T$69)</f>
-        <v>68</v>
-      </c>
-      <c r="L99" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L99" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$47,prep_table!$T$77)</f>
-        <v>76</v>
-      </c>
-      <c r="M99" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M99" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$48,prep_table!$T$85)</f>
-        <v>84</v>
-      </c>
-      <c r="N99" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N99" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$49,prep_table!$T$93)</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C100" s="15">
+      <c r="C100" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$50,prep_table!$T$6)</f>
-        <v>5</v>
-      </c>
-      <c r="D100" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D100" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$51,prep_table!$T$14)</f>
-        <v>13</v>
-      </c>
-      <c r="E100" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E100" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$52,prep_table!$T$22)</f>
-        <v>21</v>
-      </c>
-      <c r="F100" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F100" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$53,prep_table!$T$30)</f>
-        <v>29</v>
-      </c>
-      <c r="G100" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G100" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$54,prep_table!$T$38)</f>
-        <v>37</v>
-      </c>
-      <c r="H100" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$55,prep_table!$T$46)</f>
-        <v>45</v>
-      </c>
-      <c r="I100" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I100" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$56,prep_table!$T$54)</f>
-        <v>53</v>
-      </c>
-      <c r="J100" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J100" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$57,prep_table!$T$62)</f>
-        <v>61</v>
-      </c>
-      <c r="K100" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K100" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$58,prep_table!$T$70)</f>
-        <v>69</v>
-      </c>
-      <c r="L100" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L100" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$59,prep_table!$T$78)</f>
-        <v>77</v>
-      </c>
-      <c r="M100" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M100" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$60,prep_table!$T$86)</f>
-        <v>85</v>
-      </c>
-      <c r="N100" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N100" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$61,prep_table!$T$94)</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C101" s="15">
+      <c r="C101" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$62,prep_table!$T$7)</f>
-        <v>6</v>
-      </c>
-      <c r="D101" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D101" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$63,prep_table!$T$15)</f>
-        <v>14</v>
-      </c>
-      <c r="E101" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E101" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$64,prep_table!$T$23)</f>
-        <v>22</v>
-      </c>
-      <c r="F101" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F101" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$65,prep_table!$T$31)</f>
-        <v>30</v>
-      </c>
-      <c r="G101" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G101" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$66,prep_table!$T$39)</f>
-        <v>38</v>
-      </c>
-      <c r="H101" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H101" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$67,prep_table!$T$47)</f>
-        <v>46</v>
-      </c>
-      <c r="I101" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I101" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$68,prep_table!$T$55)</f>
-        <v>54</v>
-      </c>
-      <c r="J101" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J101" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$69,prep_table!$T$63)</f>
-        <v>62</v>
-      </c>
-      <c r="K101" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K101" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$70,prep_table!$T$71)</f>
-        <v>70</v>
-      </c>
-      <c r="L101" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L101" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$71,prep_table!$T$79)</f>
-        <v>78</v>
-      </c>
-      <c r="M101" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M101" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$72,prep_table!$T$87)</f>
-        <v>86</v>
-      </c>
-      <c r="N101" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N101" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$73,prep_table!$T$95)</f>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="15">
+      <c r="C102" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$74,prep_table!$T$8)</f>
-        <v>7</v>
-      </c>
-      <c r="D102" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D102" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$75,prep_table!$T$16)</f>
-        <v>15</v>
-      </c>
-      <c r="E102" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E102" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$76,prep_table!$T$24)</f>
-        <v>23</v>
-      </c>
-      <c r="F102" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F102" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$77,prep_table!$T$32)</f>
-        <v>31</v>
-      </c>
-      <c r="G102" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G102" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$78,prep_table!$T$40)</f>
-        <v>39</v>
-      </c>
-      <c r="H102" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H102" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$79,prep_table!$T$48)</f>
-        <v>47</v>
-      </c>
-      <c r="I102" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I102" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$80,prep_table!$T$56)</f>
-        <v>55</v>
-      </c>
-      <c r="J102" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J102" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$81,prep_table!$T$64)</f>
-        <v>63</v>
-      </c>
-      <c r="K102" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K102" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$82,prep_table!$T$72)</f>
-        <v>71</v>
-      </c>
-      <c r="L102" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L102" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$83,prep_table!$T$80)</f>
-        <v>79</v>
-      </c>
-      <c r="M102" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M102" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$84,prep_table!$T$88)</f>
-        <v>87</v>
-      </c>
-      <c r="N102" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N102" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$85,prep_table!$T$96)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B103" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C103" s="15">
+      <c r="C103" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$86,prep_table!$T$9)</f>
-        <v>8</v>
-      </c>
-      <c r="D103" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D103" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$87,prep_table!$T$17)</f>
-        <v>16</v>
-      </c>
-      <c r="E103" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E103" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$88,prep_table!$T$25)</f>
-        <v>24</v>
-      </c>
-      <c r="F103" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F103" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$89,prep_table!$T$33)</f>
-        <v>32</v>
-      </c>
-      <c r="G103" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G103" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$90,prep_table!$T$41)</f>
-        <v>40</v>
-      </c>
-      <c r="H103" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H103" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$91,prep_table!$T$49)</f>
-        <v>48</v>
-      </c>
-      <c r="I103" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I103" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$92,prep_table!$T$57)</f>
-        <v>56</v>
-      </c>
-      <c r="J103" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J103" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$93,prep_table!$T$65)</f>
-        <v>64</v>
-      </c>
-      <c r="K103" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K103" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$94,prep_table!$T$73)</f>
-        <v>72</v>
-      </c>
-      <c r="L103" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L103" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$95,prep_table!$T$81)</f>
-        <v>80</v>
-      </c>
-      <c r="M103" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M103" s="15" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$96,prep_table!$T$89)</f>
-        <v>88</v>
-      </c>
-      <c r="N103" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N103" s="16" t="e">
         <f>IF(ISNUMBER($G$13),prep_table!$T$97,prep_table!$T$97)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="11"/>
-      <c r="B104" s="96" t="s">
+      <c r="B104" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="C104" s="97"/>
-      <c r="D104" s="97"/>
-      <c r="E104" s="97"/>
-      <c r="F104" s="97"/>
-      <c r="G104" s="97"/>
-      <c r="H104" s="97"/>
-      <c r="I104" s="97"/>
-      <c r="J104" s="97"/>
-      <c r="K104" s="97"/>
-      <c r="L104" s="97"/>
-      <c r="M104" s="97"/>
-      <c r="N104" s="98"/>
-    </row>
-    <row r="105" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C104" s="107"/>
+      <c r="D104" s="107"/>
+      <c r="E104" s="107"/>
+      <c r="F104" s="107"/>
+      <c r="G104" s="107"/>
+      <c r="H104" s="107"/>
+      <c r="I104" s="107"/>
+      <c r="J104" s="107"/>
+      <c r="K104" s="107"/>
+      <c r="L104" s="107"/>
+      <c r="M104" s="107"/>
+      <c r="N104" s="108"/>
+    </row>
+    <row r="105" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="30"/>
       <c r="B105" s="67" t="s">
         <v>113</v>
@@ -15252,7 +15351,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="30"/>
       <c r="B106" s="67" t="s">
         <v>114</v>
@@ -15263,7 +15362,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="30"/>
       <c r="B107" s="3" t="s">
         <v>115</v>
@@ -15281,144 +15380,144 @@
       <c r="M107"/>
       <c r="N107"/>
     </row>
-    <row r="108" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="28"/>
       <c r="B108"/>
-      <c r="C108" s="91" t="s">
+      <c r="C108" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="D108" s="91"/>
-      <c r="E108" s="91"/>
-      <c r="F108" s="91"/>
-      <c r="G108" s="91"/>
-      <c r="H108" s="91"/>
-      <c r="I108" s="91"/>
-      <c r="J108" s="91"/>
-      <c r="K108" s="92" t="s">
+      <c r="D108" s="112"/>
+      <c r="E108" s="112"/>
+      <c r="F108" s="112"/>
+      <c r="G108" s="112"/>
+      <c r="H108" s="112"/>
+      <c r="I108" s="112"/>
+      <c r="J108" s="112"/>
+      <c r="K108" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="L108" s="93"/>
+      <c r="L108" s="114"/>
       <c r="M108"/>
       <c r="N108"/>
     </row>
-    <row r="109" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="28"/>
       <c r="B109"/>
-      <c r="C109" s="91" t="s">
+      <c r="C109" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="D109" s="91"/>
-      <c r="E109" s="91"/>
-      <c r="F109" s="91"/>
-      <c r="G109" s="91"/>
-      <c r="H109" s="91"/>
-      <c r="I109" s="91"/>
-      <c r="J109" s="91"/>
-      <c r="K109" s="92" t="s">
+      <c r="D109" s="112"/>
+      <c r="E109" s="112"/>
+      <c r="F109" s="112"/>
+      <c r="G109" s="112"/>
+      <c r="H109" s="112"/>
+      <c r="I109" s="112"/>
+      <c r="J109" s="112"/>
+      <c r="K109" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="L109" s="93"/>
+      <c r="L109" s="114"/>
       <c r="M109"/>
       <c r="N109"/>
     </row>
-    <row r="110" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="28"/>
       <c r="B110"/>
-      <c r="C110" s="91" t="s">
+      <c r="C110" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="D110" s="91"/>
-      <c r="E110" s="91"/>
-      <c r="F110" s="91"/>
-      <c r="G110" s="91"/>
-      <c r="H110" s="91"/>
-      <c r="I110" s="91"/>
-      <c r="J110" s="91"/>
-      <c r="K110" s="92" t="s">
+      <c r="D110" s="112"/>
+      <c r="E110" s="112"/>
+      <c r="F110" s="112"/>
+      <c r="G110" s="112"/>
+      <c r="H110" s="112"/>
+      <c r="I110" s="112"/>
+      <c r="J110" s="112"/>
+      <c r="K110" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="L110" s="93"/>
+      <c r="L110" s="114"/>
       <c r="M110" s="68"/>
       <c r="N110"/>
     </row>
-    <row r="111" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="28"/>
       <c r="B111"/>
-      <c r="C111" s="91" t="s">
+      <c r="C111" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="D111" s="91"/>
-      <c r="E111" s="91"/>
-      <c r="F111" s="91"/>
-      <c r="G111" s="91"/>
-      <c r="H111" s="91"/>
-      <c r="I111" s="91"/>
-      <c r="J111" s="91"/>
-      <c r="K111" s="92" t="s">
+      <c r="D111" s="112"/>
+      <c r="E111" s="112"/>
+      <c r="F111" s="112"/>
+      <c r="G111" s="112"/>
+      <c r="H111" s="112"/>
+      <c r="I111" s="112"/>
+      <c r="J111" s="112"/>
+      <c r="K111" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="L111" s="93"/>
+      <c r="L111" s="114"/>
       <c r="M111" s="68"/>
       <c r="N111"/>
     </row>
-    <row r="112" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="28"/>
       <c r="B112"/>
-      <c r="C112" s="91" t="s">
+      <c r="C112" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="D112" s="91"/>
-      <c r="E112" s="91"/>
-      <c r="F112" s="91"/>
-      <c r="G112" s="91"/>
-      <c r="H112" s="91"/>
-      <c r="I112" s="91"/>
-      <c r="J112" s="91"/>
-      <c r="K112" s="92" t="s">
+      <c r="D112" s="112"/>
+      <c r="E112" s="112"/>
+      <c r="F112" s="112"/>
+      <c r="G112" s="112"/>
+      <c r="H112" s="112"/>
+      <c r="I112" s="112"/>
+      <c r="J112" s="112"/>
+      <c r="K112" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="L112" s="93"/>
+      <c r="L112" s="114"/>
       <c r="M112" s="68"/>
     </row>
-    <row r="113" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="28"/>
       <c r="B113"/>
-      <c r="C113" s="91" t="s">
+      <c r="C113" s="112" t="s">
         <v>126</v>
       </c>
-      <c r="D113" s="91"/>
-      <c r="E113" s="91"/>
-      <c r="F113" s="91"/>
-      <c r="G113" s="91"/>
-      <c r="H113" s="91"/>
-      <c r="I113" s="91"/>
-      <c r="J113" s="91"/>
-      <c r="K113" s="92" t="s">
+      <c r="D113" s="112"/>
+      <c r="E113" s="112"/>
+      <c r="F113" s="112"/>
+      <c r="G113" s="112"/>
+      <c r="H113" s="112"/>
+      <c r="I113" s="112"/>
+      <c r="J113" s="112"/>
+      <c r="K113" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="L113" s="93"/>
+      <c r="L113" s="114"/>
       <c r="M113" s="68"/>
     </row>
-    <row r="114" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="28"/>
       <c r="B114"/>
-      <c r="C114" s="91" t="s">
+      <c r="C114" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="D114" s="91"/>
-      <c r="E114" s="91"/>
-      <c r="F114" s="91"/>
-      <c r="G114" s="91"/>
-      <c r="H114" s="91"/>
-      <c r="I114" s="91"/>
-      <c r="J114" s="91"/>
-      <c r="K114" s="92" t="s">
+      <c r="D114" s="112"/>
+      <c r="E114" s="112"/>
+      <c r="F114" s="112"/>
+      <c r="G114" s="112"/>
+      <c r="H114" s="112"/>
+      <c r="I114" s="112"/>
+      <c r="J114" s="112"/>
+      <c r="K114" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="L114" s="93"/>
+      <c r="L114" s="114"/>
       <c r="M114" s="68"/>
     </row>
-    <row r="115" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="28"/>
       <c r="B115"/>
       <c r="C115" s="69"/>
@@ -15432,51 +15531,51 @@
       <c r="K115" s="31"/>
       <c r="L115" s="31"/>
     </row>
-    <row r="118" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C118" s="88" t="s">
+    <row r="118" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C118" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="D118" s="89"/>
-      <c r="E118" s="90"/>
-      <c r="F118" s="80" t="s">
+      <c r="D118" s="123"/>
+      <c r="E118" s="124"/>
+      <c r="F118" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="G118" s="81"/>
-      <c r="H118" s="81"/>
-      <c r="I118" s="82"/>
-    </row>
-    <row r="119" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C119" s="83" t="s">
+      <c r="G118" s="117"/>
+      <c r="H118" s="117"/>
+      <c r="I118" s="118"/>
+    </row>
+    <row r="119" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C119" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="83"/>
-      <c r="E119" s="83"/>
-      <c r="F119" s="83" t="s">
+      <c r="D119" s="115"/>
+      <c r="E119" s="115"/>
+      <c r="F119" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="G119" s="83"/>
-      <c r="H119" s="83"/>
-      <c r="I119" s="83"/>
-    </row>
-    <row r="120" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C120" s="83" t="s">
+      <c r="G119" s="115"/>
+      <c r="H119" s="115"/>
+      <c r="I119" s="115"/>
+    </row>
+    <row r="120" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C120" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="D120" s="83"/>
-      <c r="E120" s="83"/>
-      <c r="F120" s="83" t="s">
+      <c r="D120" s="115"/>
+      <c r="E120" s="115"/>
+      <c r="F120" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="G120" s="83"/>
-      <c r="H120" s="83"/>
-      <c r="I120" s="83"/>
-    </row>
-    <row r="121" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C121" s="80" t="s">
+      <c r="G120" s="115"/>
+      <c r="H120" s="115"/>
+      <c r="I120" s="115"/>
+    </row>
+    <row r="121" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C121" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D121" s="81"/>
-      <c r="E121" s="82"/>
+      <c r="D121" s="117"/>
+      <c r="E121" s="118"/>
       <c r="F121" s="125" t="s">
         <v>145</v>
       </c>
@@ -15484,66 +15583,106 @@
       <c r="H121" s="125"/>
       <c r="I121" s="125"/>
     </row>
-    <row r="122" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="80" t="s">
+    <row r="122" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C122" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="D122" s="81"/>
-      <c r="E122" s="82"/>
-      <c r="F122" s="83" t="s">
+      <c r="D122" s="117"/>
+      <c r="E122" s="118"/>
+      <c r="F122" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="G122" s="83"/>
-      <c r="H122" s="83"/>
-      <c r="I122" s="83"/>
-    </row>
-    <row r="123" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="80" t="s">
+      <c r="G122" s="115"/>
+      <c r="H122" s="115"/>
+      <c r="I122" s="115"/>
+    </row>
+    <row r="123" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C123" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="D123" s="81"/>
-      <c r="E123" s="82"/>
-      <c r="F123" s="83" t="s">
+      <c r="D123" s="117"/>
+      <c r="E123" s="118"/>
+      <c r="F123" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="G123" s="83"/>
-      <c r="H123" s="83"/>
-      <c r="I123" s="83"/>
-    </row>
-    <row r="124" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="80" t="s">
+      <c r="G123" s="115"/>
+      <c r="H123" s="115"/>
+      <c r="I123" s="115"/>
+    </row>
+    <row r="124" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C124" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="D124" s="81"/>
-      <c r="E124" s="82"/>
-      <c r="F124" s="83">
+      <c r="D124" s="117"/>
+      <c r="E124" s="118"/>
+      <c r="F124" s="115">
         <v>20240722</v>
       </c>
-      <c r="G124" s="83"/>
-      <c r="H124" s="83"/>
-      <c r="I124" s="83"/>
-    </row>
-    <row r="125" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="80" t="s">
+      <c r="G124" s="115"/>
+      <c r="H124" s="115"/>
+      <c r="I124" s="115"/>
+    </row>
+    <row r="125" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C125" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="D125" s="81"/>
-      <c r="E125" s="82"/>
-      <c r="F125" s="83">
+      <c r="D125" s="117"/>
+      <c r="E125" s="118"/>
+      <c r="F125" s="115">
         <v>20240715</v>
       </c>
-      <c r="G125" s="83"/>
-      <c r="H125" s="83"/>
-      <c r="I125" s="83"/>
+      <c r="G125" s="115"/>
+      <c r="H125" s="115"/>
+      <c r="I125" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="C114:J114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="B67:N67"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B14:N14"/>
+    <mergeCell ref="B24:N24"/>
+    <mergeCell ref="B42:N42"/>
+    <mergeCell ref="B44:N44"/>
+    <mergeCell ref="B54:N54"/>
+    <mergeCell ref="B69:N69"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="B91:N91"/>
+    <mergeCell ref="B93:N93"/>
+    <mergeCell ref="B104:N104"/>
+    <mergeCell ref="C113:J113"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="C108:J108"/>
+    <mergeCell ref="K108:L108"/>
+    <mergeCell ref="C109:J109"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="C110:J110"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="C111:J111"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="C112:J112"/>
+    <mergeCell ref="K112:L112"/>
     <mergeCell ref="C125:E125"/>
     <mergeCell ref="F125:I125"/>
     <mergeCell ref="C120:E120"/>
@@ -15556,52 +15695,12 @@
     <mergeCell ref="F123:I123"/>
     <mergeCell ref="C124:E124"/>
     <mergeCell ref="F124:I124"/>
-    <mergeCell ref="C113:J113"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="C108:J108"/>
-    <mergeCell ref="K108:L108"/>
-    <mergeCell ref="C109:J109"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="C110:J110"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="C111:J111"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="C112:J112"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="B69:N69"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="B91:N91"/>
-    <mergeCell ref="B93:N93"/>
-    <mergeCell ref="B104:N104"/>
-    <mergeCell ref="B67:N67"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="B14:N14"/>
-    <mergeCell ref="B24:N24"/>
-    <mergeCell ref="B42:N42"/>
-    <mergeCell ref="B44:N44"/>
-    <mergeCell ref="B54:N54"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C114:J114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="F119:I119"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Sample Name" prompt="Informative sample identifier provided by submitter. Only use letters, numbers or underscores [A-Za-z0-9_], no other characters, please." sqref="G89:G90 C86:F90 H86:N90 C96:N103 G86:G87" xr:uid="{0DD550AB-8FEF-43DC-BBE9-89E0A9073C0E}"/>
@@ -15642,13 +15741,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>85</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>86</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15666,13 +15765,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>74</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
+                    <xdr:rowOff>279400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>76</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15708,15 +15807,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>60</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:colOff>88900</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15760,7 +15859,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15804,7 +15903,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15818,7 +15917,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -15842,7 +15941,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>314325</xdr:rowOff>
+                    <xdr:rowOff>317500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -15862,13 +15961,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15886,13 +15985,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>85725</xdr:rowOff>
+                    <xdr:rowOff>88900</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15908,13 +16007,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>85725</xdr:rowOff>
+                    <xdr:rowOff>88900</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15936,7 +16035,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15958,7 +16057,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16018,7 +16117,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>90</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -16046,7 +16145,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16068,7 +16167,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>66</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16128,7 +16227,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>90</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -16150,7 +16249,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>103</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -16172,7 +16271,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>103</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -16194,7 +16293,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>104</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -16216,7 +16315,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>104</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -16244,7 +16343,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>107</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16258,15 +16357,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>31750</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>314325</xdr:rowOff>
+                    <xdr:rowOff>317500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16280,7 +16379,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>31750</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>342900</xdr:rowOff>
                   </from>
